--- a/CumulativeTestsByTypeByCounty/2021-04-09.xlsx
+++ b/CumulativeTestsByTypeByCounty/2021-04-09.xlsx
@@ -1071,16 +1071,16 @@
         <v>5</v>
       </c>
       <c r="B2" s="4">
-        <v>52017</v>
+        <v>52212</v>
       </c>
       <c r="C2" s="4">
-        <v>1464</v>
+        <v>1465</v>
       </c>
       <c r="D2" s="4">
-        <v>7295</v>
+        <v>7305</v>
       </c>
       <c r="E2" s="4">
-        <v>60776</v>
+        <v>60982</v>
       </c>
     </row>
     <row r="3" ht="14" customHeight="1">
@@ -1088,16 +1088,16 @@
         <v>6</v>
       </c>
       <c r="B3" s="4">
-        <v>4145</v>
+        <v>4151</v>
       </c>
       <c r="C3" s="4">
         <v>224</v>
       </c>
       <c r="D3" s="4">
-        <v>2501</v>
+        <v>2514</v>
       </c>
       <c r="E3" s="4">
-        <v>6870</v>
+        <v>6889</v>
       </c>
     </row>
     <row r="4" ht="14" customHeight="1">
@@ -1105,16 +1105,16 @@
         <v>7</v>
       </c>
       <c r="B4" s="4">
-        <v>54944</v>
+        <v>55088</v>
       </c>
       <c r="C4" s="4">
-        <v>1581</v>
+        <v>1586</v>
       </c>
       <c r="D4" s="4">
-        <v>25025</v>
+        <v>25174</v>
       </c>
       <c r="E4" s="4">
-        <v>81550</v>
+        <v>81848</v>
       </c>
     </row>
     <row r="5" ht="14" customHeight="1">
@@ -1122,16 +1122,16 @@
         <v>8</v>
       </c>
       <c r="B5" s="4">
-        <v>7622</v>
+        <v>7642</v>
       </c>
       <c r="C5" s="4">
-        <v>2231</v>
+        <v>2232</v>
       </c>
       <c r="D5" s="4">
-        <v>5569</v>
+        <v>5613</v>
       </c>
       <c r="E5" s="4">
-        <v>15422</v>
+        <v>15487</v>
       </c>
     </row>
     <row r="6" ht="14" customHeight="1">
@@ -1139,7 +1139,7 @@
         <v>9</v>
       </c>
       <c r="B6" s="4">
-        <v>2899</v>
+        <v>2903</v>
       </c>
       <c r="C6" s="4">
         <v>490</v>
@@ -1148,7 +1148,7 @@
         <v>522</v>
       </c>
       <c r="E6" s="4">
-        <v>3911</v>
+        <v>3915</v>
       </c>
     </row>
     <row r="7" ht="14" customHeight="1">
@@ -1156,7 +1156,7 @@
         <v>10</v>
       </c>
       <c r="B7" s="4">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="C7" s="4">
         <v>248</v>
@@ -1165,7 +1165,7 @@
         <v>215</v>
       </c>
       <c r="E7" s="4">
-        <v>1116</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="8" ht="14" customHeight="1">
@@ -1173,16 +1173,16 @@
         <v>11</v>
       </c>
       <c r="B8" s="4">
-        <v>55659</v>
+        <v>55786</v>
       </c>
       <c r="C8" s="4">
-        <v>1158</v>
+        <v>1163</v>
       </c>
       <c r="D8" s="4">
-        <v>4942</v>
+        <v>4947</v>
       </c>
       <c r="E8" s="4">
-        <v>61759</v>
+        <v>61896</v>
       </c>
     </row>
     <row r="9" ht="14" customHeight="1">
@@ -1190,16 +1190,16 @@
         <v>12</v>
       </c>
       <c r="B9" s="4">
-        <v>17538</v>
+        <v>17628</v>
       </c>
       <c r="C9" s="4">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="D9" s="4">
         <v>1413</v>
       </c>
       <c r="E9" s="4">
-        <v>19429</v>
+        <v>19522</v>
       </c>
     </row>
     <row r="10" ht="14" customHeight="1">
@@ -1207,7 +1207,7 @@
         <v>13</v>
       </c>
       <c r="B10" s="4">
-        <v>1829</v>
+        <v>1833</v>
       </c>
       <c r="C10" s="4">
         <v>60</v>
@@ -1216,7 +1216,7 @@
         <v>493</v>
       </c>
       <c r="E10" s="4">
-        <v>2382</v>
+        <v>2386</v>
       </c>
     </row>
     <row r="11" ht="14" customHeight="1">
@@ -1224,16 +1224,16 @@
         <v>14</v>
       </c>
       <c r="B11" s="4">
-        <v>7897</v>
+        <v>7916</v>
       </c>
       <c r="C11" s="4">
         <v>530</v>
       </c>
       <c r="D11" s="4">
-        <v>3801</v>
+        <v>3807</v>
       </c>
       <c r="E11" s="4">
-        <v>12228</v>
+        <v>12253</v>
       </c>
     </row>
     <row r="12" ht="14" customHeight="1">
@@ -1241,16 +1241,16 @@
         <v>15</v>
       </c>
       <c r="B12" s="4">
-        <v>50282</v>
+        <v>50389</v>
       </c>
       <c r="C12" s="4">
-        <v>1150</v>
+        <v>1156</v>
       </c>
       <c r="D12" s="4">
-        <v>17032</v>
+        <v>17040</v>
       </c>
       <c r="E12" s="4">
-        <v>68464</v>
+        <v>68585</v>
       </c>
     </row>
     <row r="13" ht="14" customHeight="1">
@@ -1258,7 +1258,7 @@
         <v>16</v>
       </c>
       <c r="B13" s="4">
-        <v>1180</v>
+        <v>1181</v>
       </c>
       <c r="C13" s="4">
         <v>157</v>
@@ -1267,7 +1267,7 @@
         <v>874</v>
       </c>
       <c r="E13" s="4">
-        <v>2211</v>
+        <v>2212</v>
       </c>
     </row>
     <row r="14" ht="14" customHeight="1">
@@ -1275,16 +1275,16 @@
         <v>17</v>
       </c>
       <c r="B14" s="4">
-        <v>31519</v>
+        <v>31728</v>
       </c>
       <c r="C14" s="4">
         <v>5396</v>
       </c>
       <c r="D14" s="4">
-        <v>7344</v>
+        <v>7389</v>
       </c>
       <c r="E14" s="4">
-        <v>44259</v>
+        <v>44513</v>
       </c>
     </row>
     <row r="15" ht="14" customHeight="1">
@@ -1292,16 +1292,16 @@
         <v>18</v>
       </c>
       <c r="B15" s="4">
-        <v>237601</v>
+        <v>238211</v>
       </c>
       <c r="C15" s="4">
-        <v>13356</v>
+        <v>13357</v>
       </c>
       <c r="D15" s="4">
-        <v>18396</v>
+        <v>18430</v>
       </c>
       <c r="E15" s="4">
-        <v>269353</v>
+        <v>269998</v>
       </c>
     </row>
     <row r="16" ht="14" customHeight="1">
@@ -1309,16 +1309,16 @@
         <v>19</v>
       </c>
       <c r="B16" s="4">
-        <v>1962491</v>
+        <v>1969212</v>
       </c>
       <c r="C16" s="4">
-        <v>54069</v>
+        <v>54106</v>
       </c>
       <c r="D16" s="4">
-        <v>201980</v>
+        <v>202436</v>
       </c>
       <c r="E16" s="4">
-        <v>2218540</v>
+        <v>2225754</v>
       </c>
     </row>
     <row r="17" ht="14" customHeight="1">
@@ -1326,7 +1326,7 @@
         <v>20</v>
       </c>
       <c r="B17" s="4">
-        <v>5588</v>
+        <v>5603</v>
       </c>
       <c r="C17" s="4">
         <v>261</v>
@@ -1335,7 +1335,7 @@
         <v>730</v>
       </c>
       <c r="E17" s="4">
-        <v>6579</v>
+        <v>6594</v>
       </c>
     </row>
     <row r="18" ht="14" customHeight="1">
@@ -1360,16 +1360,16 @@
         <v>22</v>
       </c>
       <c r="B19" s="4">
-        <v>8716</v>
+        <v>8727</v>
       </c>
       <c r="C19" s="4">
         <v>474</v>
       </c>
       <c r="D19" s="4">
-        <v>4570</v>
+        <v>4604</v>
       </c>
       <c r="E19" s="4">
-        <v>13760</v>
+        <v>13805</v>
       </c>
     </row>
     <row r="20" ht="14" customHeight="1">
@@ -1377,16 +1377,16 @@
         <v>23</v>
       </c>
       <c r="B20" s="4">
-        <v>58625</v>
+        <v>58668</v>
       </c>
       <c r="C20" s="4">
-        <v>9865</v>
+        <v>9869</v>
       </c>
       <c r="D20" s="4">
-        <v>13255</v>
+        <v>13318</v>
       </c>
       <c r="E20" s="4">
-        <v>81745</v>
+        <v>81855</v>
       </c>
     </row>
     <row r="21" ht="14" customHeight="1">
@@ -1394,16 +1394,16 @@
         <v>24</v>
       </c>
       <c r="B21" s="4">
-        <v>312795</v>
+        <v>314482</v>
       </c>
       <c r="C21" s="4">
-        <v>9668</v>
+        <v>9696</v>
       </c>
       <c r="D21" s="4">
-        <v>36760</v>
+        <v>36844</v>
       </c>
       <c r="E21" s="4">
-        <v>359223</v>
+        <v>361022</v>
       </c>
     </row>
     <row r="22" ht="14" customHeight="1">
@@ -1411,16 +1411,16 @@
         <v>25</v>
       </c>
       <c r="B22" s="4">
-        <v>241938</v>
+        <v>242698</v>
       </c>
       <c r="C22" s="4">
-        <v>5826</v>
+        <v>5829</v>
       </c>
       <c r="D22" s="4">
         <v>18519</v>
       </c>
       <c r="E22" s="4">
-        <v>266283</v>
+        <v>267046</v>
       </c>
     </row>
     <row r="23" ht="14" customHeight="1">
@@ -1428,16 +1428,16 @@
         <v>26</v>
       </c>
       <c r="B23" s="4">
-        <v>8537</v>
+        <v>8539</v>
       </c>
       <c r="C23" s="4">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D23" s="4">
-        <v>1182</v>
+        <v>1183</v>
       </c>
       <c r="E23" s="4">
-        <v>9835</v>
+        <v>9841</v>
       </c>
     </row>
     <row r="24" ht="14" customHeight="1">
@@ -1445,7 +1445,7 @@
         <v>27</v>
       </c>
       <c r="B24" s="4">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="C24" s="4">
         <v>124</v>
@@ -1454,7 +1454,7 @@
         <v>84</v>
       </c>
       <c r="E24" s="4">
-        <v>807</v>
+        <v>808</v>
       </c>
     </row>
     <row r="25" ht="14" customHeight="1">
@@ -1462,16 +1462,16 @@
         <v>28</v>
       </c>
       <c r="B25" s="4">
-        <v>14984</v>
+        <v>15090</v>
       </c>
       <c r="C25" s="4">
         <v>1407</v>
       </c>
       <c r="D25" s="4">
-        <v>2395</v>
+        <v>2397</v>
       </c>
       <c r="E25" s="4">
-        <v>18786</v>
+        <v>18894</v>
       </c>
     </row>
     <row r="26" ht="14" customHeight="1">
@@ -1479,16 +1479,16 @@
         <v>29</v>
       </c>
       <c r="B26" s="4">
-        <v>16542</v>
+        <v>16576</v>
       </c>
       <c r="C26" s="4">
-        <v>789</v>
+        <v>791</v>
       </c>
       <c r="D26" s="4">
-        <v>18623</v>
+        <v>18628</v>
       </c>
       <c r="E26" s="4">
-        <v>35954</v>
+        <v>35995</v>
       </c>
     </row>
     <row r="27" ht="14" customHeight="1">
@@ -1496,7 +1496,7 @@
         <v>30</v>
       </c>
       <c r="B27" s="4">
-        <v>14288</v>
+        <v>14331</v>
       </c>
       <c r="C27" s="4">
         <v>261</v>
@@ -1505,7 +1505,7 @@
         <v>2435</v>
       </c>
       <c r="E27" s="4">
-        <v>16984</v>
+        <v>17027</v>
       </c>
     </row>
     <row r="28" ht="14" customHeight="1">
@@ -1513,16 +1513,16 @@
         <v>31</v>
       </c>
       <c r="B28" s="4">
-        <v>33033</v>
+        <v>33224</v>
       </c>
       <c r="C28" s="4">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="D28" s="4">
-        <v>3821</v>
+        <v>3824</v>
       </c>
       <c r="E28" s="4">
-        <v>37963</v>
+        <v>38158</v>
       </c>
     </row>
     <row r="29" ht="14" customHeight="1">
@@ -1530,16 +1530,16 @@
         <v>32</v>
       </c>
       <c r="B29" s="4">
-        <v>32537</v>
+        <v>32650</v>
       </c>
       <c r="C29" s="4">
-        <v>1599</v>
+        <v>1602</v>
       </c>
       <c r="D29" s="4">
-        <v>5620</v>
+        <v>5626</v>
       </c>
       <c r="E29" s="4">
-        <v>39756</v>
+        <v>39878</v>
       </c>
     </row>
     <row r="30" ht="14" customHeight="1">
@@ -1547,16 +1547,16 @@
         <v>33</v>
       </c>
       <c r="B30" s="4">
-        <v>13271</v>
+        <v>13281</v>
       </c>
       <c r="C30" s="4">
-        <v>589</v>
+        <v>596</v>
       </c>
       <c r="D30" s="4">
-        <v>5182</v>
+        <v>5198</v>
       </c>
       <c r="E30" s="4">
-        <v>19042</v>
+        <v>19075</v>
       </c>
     </row>
     <row r="31" ht="14" customHeight="1">
@@ -1564,16 +1564,16 @@
         <v>34</v>
       </c>
       <c r="B31" s="4">
-        <v>5027</v>
+        <v>5032</v>
       </c>
       <c r="C31" s="4">
         <v>230</v>
       </c>
       <c r="D31" s="4">
-        <v>5335</v>
+        <v>5336</v>
       </c>
       <c r="E31" s="4">
-        <v>10592</v>
+        <v>10598</v>
       </c>
     </row>
     <row r="32" ht="14" customHeight="1">
@@ -1581,16 +1581,16 @@
         <v>35</v>
       </c>
       <c r="B32" s="4">
-        <v>249296</v>
+        <v>249920</v>
       </c>
       <c r="C32" s="4">
-        <v>7871</v>
+        <v>7887</v>
       </c>
       <c r="D32" s="4">
-        <v>55069</v>
+        <v>55214</v>
       </c>
       <c r="E32" s="4">
-        <v>312236</v>
+        <v>313021</v>
       </c>
     </row>
     <row r="33" ht="14" customHeight="1">
@@ -1598,7 +1598,7 @@
         <v>36</v>
       </c>
       <c r="B33" s="4">
-        <v>5803</v>
+        <v>5809</v>
       </c>
       <c r="C33" s="4">
         <v>372</v>
@@ -1607,7 +1607,7 @@
         <v>1854</v>
       </c>
       <c r="E33" s="4">
-        <v>8029</v>
+        <v>8035</v>
       </c>
     </row>
     <row r="34" ht="14" customHeight="1">
@@ -1615,7 +1615,7 @@
         <v>37</v>
       </c>
       <c r="B34" s="4">
-        <v>1663</v>
+        <v>1666</v>
       </c>
       <c r="C34" s="4">
         <v>859</v>
@@ -1624,7 +1624,7 @@
         <v>426</v>
       </c>
       <c r="E34" s="4">
-        <v>2948</v>
+        <v>2951</v>
       </c>
     </row>
     <row r="35" ht="14" customHeight="1">
@@ -1632,16 +1632,16 @@
         <v>38</v>
       </c>
       <c r="B35" s="4">
-        <v>11950</v>
+        <v>11964</v>
       </c>
       <c r="C35" s="4">
         <v>3146</v>
       </c>
       <c r="D35" s="4">
-        <v>3825</v>
+        <v>3832</v>
       </c>
       <c r="E35" s="4">
-        <v>18921</v>
+        <v>18942</v>
       </c>
     </row>
     <row r="36" ht="14" customHeight="1">
@@ -1649,7 +1649,7 @@
         <v>39</v>
       </c>
       <c r="B36" s="4">
-        <v>4007</v>
+        <v>4018</v>
       </c>
       <c r="C36" s="4">
         <v>261</v>
@@ -1658,7 +1658,7 @@
         <v>1847</v>
       </c>
       <c r="E36" s="4">
-        <v>6115</v>
+        <v>6126</v>
       </c>
     </row>
     <row r="37" ht="14" customHeight="1">
@@ -1666,16 +1666,16 @@
         <v>40</v>
       </c>
       <c r="B37" s="4">
-        <v>7867</v>
+        <v>7896</v>
       </c>
       <c r="C37" s="4">
         <v>578</v>
       </c>
       <c r="D37" s="4">
-        <v>1436</v>
+        <v>1439</v>
       </c>
       <c r="E37" s="4">
-        <v>9881</v>
+        <v>9913</v>
       </c>
     </row>
     <row r="38" ht="14" customHeight="1">
@@ -1683,16 +1683,16 @@
         <v>41</v>
       </c>
       <c r="B38" s="4">
-        <v>22913</v>
+        <v>23063</v>
       </c>
       <c r="C38" s="4">
         <v>778</v>
       </c>
       <c r="D38" s="4">
-        <v>8210</v>
+        <v>8232</v>
       </c>
       <c r="E38" s="4">
-        <v>31901</v>
+        <v>32073</v>
       </c>
     </row>
     <row r="39" ht="14" customHeight="1">
@@ -1700,16 +1700,16 @@
         <v>42</v>
       </c>
       <c r="B39" s="4">
-        <v>2975</v>
+        <v>2977</v>
       </c>
       <c r="C39" s="4">
         <v>365</v>
       </c>
       <c r="D39" s="4">
-        <v>4401</v>
+        <v>4403</v>
       </c>
       <c r="E39" s="4">
-        <v>7741</v>
+        <v>7745</v>
       </c>
     </row>
     <row r="40" ht="14" customHeight="1">
@@ -1717,7 +1717,7 @@
         <v>43</v>
       </c>
       <c r="B40" s="4">
-        <v>4067</v>
+        <v>4074</v>
       </c>
       <c r="C40" s="4">
         <v>450</v>
@@ -1726,7 +1726,7 @@
         <v>1627</v>
       </c>
       <c r="E40" s="4">
-        <v>6144</v>
+        <v>6151</v>
       </c>
     </row>
     <row r="41" ht="14" customHeight="1">
@@ -1740,10 +1740,10 @@
         <v>18</v>
       </c>
       <c r="D41" s="4">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E41" s="4">
-        <v>1092</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="42" ht="14" customHeight="1">
@@ -1754,13 +1754,13 @@
         <v>1937</v>
       </c>
       <c r="C42" s="4">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D42" s="4">
-        <v>1756</v>
+        <v>1758</v>
       </c>
       <c r="E42" s="4">
-        <v>3719</v>
+        <v>3722</v>
       </c>
     </row>
     <row r="43" ht="14" customHeight="1">
@@ -1768,7 +1768,7 @@
         <v>46</v>
       </c>
       <c r="B43" s="4">
-        <v>3019</v>
+        <v>3020</v>
       </c>
       <c r="C43" s="4">
         <v>89</v>
@@ -1777,7 +1777,7 @@
         <v>2826</v>
       </c>
       <c r="E43" s="4">
-        <v>5934</v>
+        <v>5935</v>
       </c>
     </row>
     <row r="44" ht="14" customHeight="1">
@@ -1785,16 +1785,16 @@
         <v>47</v>
       </c>
       <c r="B44" s="4">
-        <v>878091</v>
+        <v>879310</v>
       </c>
       <c r="C44" s="4">
-        <v>80303</v>
+        <v>80369</v>
       </c>
       <c r="D44" s="4">
-        <v>102262</v>
+        <v>102549</v>
       </c>
       <c r="E44" s="4">
-        <v>1060656</v>
+        <v>1062228</v>
       </c>
     </row>
     <row r="45" ht="14" customHeight="1">
@@ -1802,16 +1802,16 @@
         <v>48</v>
       </c>
       <c r="B45" s="4">
-        <v>1115</v>
+        <v>1118</v>
       </c>
       <c r="C45" s="4">
         <v>100</v>
       </c>
       <c r="D45" s="4">
-        <v>1411</v>
+        <v>1412</v>
       </c>
       <c r="E45" s="4">
-        <v>2626</v>
+        <v>2630</v>
       </c>
     </row>
     <row r="46" ht="14" customHeight="1">
@@ -1819,16 +1819,16 @@
         <v>49</v>
       </c>
       <c r="B46" s="4">
-        <v>11648</v>
+        <v>11677</v>
       </c>
       <c r="C46" s="4">
         <v>328</v>
       </c>
       <c r="D46" s="4">
-        <v>4114</v>
+        <v>4142</v>
       </c>
       <c r="E46" s="4">
-        <v>16090</v>
+        <v>16147</v>
       </c>
     </row>
     <row r="47" ht="14" customHeight="1">
@@ -1836,16 +1836,16 @@
         <v>50</v>
       </c>
       <c r="B47" s="4">
-        <v>96520</v>
+        <v>96814</v>
       </c>
       <c r="C47" s="4">
-        <v>7996</v>
+        <v>8001</v>
       </c>
       <c r="D47" s="4">
-        <v>20064</v>
+        <v>20101</v>
       </c>
       <c r="E47" s="4">
-        <v>124580</v>
+        <v>124916</v>
       </c>
     </row>
     <row r="48" ht="14" customHeight="1">
@@ -1853,16 +1853,16 @@
         <v>51</v>
       </c>
       <c r="B48" s="4">
-        <v>6418</v>
+        <v>6427</v>
       </c>
       <c r="C48" s="4">
         <v>300</v>
       </c>
       <c r="D48" s="4">
-        <v>2423</v>
+        <v>2425</v>
       </c>
       <c r="E48" s="4">
-        <v>9141</v>
+        <v>9152</v>
       </c>
     </row>
     <row r="49" ht="14" customHeight="1">
@@ -1870,16 +1870,16 @@
         <v>52</v>
       </c>
       <c r="B49" s="4">
-        <v>1456</v>
+        <v>1458</v>
       </c>
       <c r="C49" s="4">
         <v>17</v>
       </c>
       <c r="D49" s="4">
-        <v>1534</v>
+        <v>1536</v>
       </c>
       <c r="E49" s="4">
-        <v>3007</v>
+        <v>3011</v>
       </c>
     </row>
     <row r="50" ht="14" customHeight="1">
@@ -1887,16 +1887,16 @@
         <v>53</v>
       </c>
       <c r="B50" s="4">
-        <v>23029</v>
+        <v>23099</v>
       </c>
       <c r="C50" s="4">
-        <v>1346</v>
+        <v>1347</v>
       </c>
       <c r="D50" s="4">
-        <v>5000</v>
+        <v>5006</v>
       </c>
       <c r="E50" s="4">
-        <v>29375</v>
+        <v>29452</v>
       </c>
     </row>
     <row r="51" ht="14" customHeight="1">
@@ -1904,16 +1904,16 @@
         <v>54</v>
       </c>
       <c r="B51" s="4">
-        <v>84753</v>
+        <v>84944</v>
       </c>
       <c r="C51" s="4">
         <v>2174</v>
       </c>
       <c r="D51" s="4">
-        <v>4202</v>
+        <v>4213</v>
       </c>
       <c r="E51" s="4">
-        <v>91129</v>
+        <v>91331</v>
       </c>
     </row>
     <row r="52" ht="14" customHeight="1">
@@ -1921,7 +1921,7 @@
         <v>55</v>
       </c>
       <c r="B52" s="4">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="C52" s="4">
         <v>43</v>
@@ -1930,7 +1930,7 @@
         <v>734</v>
       </c>
       <c r="E52" s="4">
-        <v>1477</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="53" ht="14" customHeight="1">
@@ -1938,7 +1938,7 @@
         <v>56</v>
       </c>
       <c r="B53" s="4">
-        <v>4366</v>
+        <v>4368</v>
       </c>
       <c r="C53" s="4">
         <v>68</v>
@@ -1947,7 +1947,7 @@
         <v>1160</v>
       </c>
       <c r="E53" s="4">
-        <v>5594</v>
+        <v>5596</v>
       </c>
     </row>
     <row r="54" ht="14" customHeight="1">
@@ -1961,10 +1961,10 @@
         <v>17</v>
       </c>
       <c r="D54" s="4">
-        <v>1907</v>
+        <v>1908</v>
       </c>
       <c r="E54" s="4">
-        <v>2872</v>
+        <v>2873</v>
       </c>
     </row>
     <row r="55" ht="14" customHeight="1">
@@ -1972,16 +1972,16 @@
         <v>58</v>
       </c>
       <c r="B55" s="4">
-        <v>2462</v>
+        <v>2466</v>
       </c>
       <c r="C55" s="4">
         <v>24</v>
       </c>
       <c r="D55" s="4">
-        <v>1588</v>
+        <v>1591</v>
       </c>
       <c r="E55" s="4">
-        <v>4074</v>
+        <v>4081</v>
       </c>
     </row>
     <row r="56" ht="14" customHeight="1">
@@ -1989,7 +1989,7 @@
         <v>59</v>
       </c>
       <c r="B56" s="4">
-        <v>2148</v>
+        <v>2149</v>
       </c>
       <c r="C56" s="4">
         <v>14</v>
@@ -1998,7 +1998,7 @@
         <v>147</v>
       </c>
       <c r="E56" s="4">
-        <v>2309</v>
+        <v>2310</v>
       </c>
     </row>
     <row r="57" ht="14" customHeight="1">
@@ -2023,16 +2023,16 @@
         <v>61</v>
       </c>
       <c r="B58" s="4">
-        <v>2230886</v>
+        <v>2234619</v>
       </c>
       <c r="C58" s="4">
-        <v>131512</v>
+        <v>131614</v>
       </c>
       <c r="D58" s="4">
-        <v>213810</v>
+        <v>215184</v>
       </c>
       <c r="E58" s="4">
-        <v>2576208</v>
+        <v>2581417</v>
       </c>
     </row>
     <row r="59" ht="14" customHeight="1">
@@ -2040,16 +2040,16 @@
         <v>62</v>
       </c>
       <c r="B59" s="4">
-        <v>7817</v>
+        <v>7823</v>
       </c>
       <c r="C59" s="4">
         <v>451</v>
       </c>
       <c r="D59" s="4">
-        <v>2353</v>
+        <v>2355</v>
       </c>
       <c r="E59" s="4">
-        <v>10621</v>
+        <v>10629</v>
       </c>
     </row>
     <row r="60" ht="14" customHeight="1">
@@ -2057,16 +2057,16 @@
         <v>63</v>
       </c>
       <c r="B60" s="4">
-        <v>8864</v>
+        <v>8878</v>
       </c>
       <c r="C60" s="4">
         <v>282</v>
       </c>
       <c r="D60" s="4">
-        <v>2421</v>
+        <v>2517</v>
       </c>
       <c r="E60" s="4">
-        <v>11567</v>
+        <v>11677</v>
       </c>
     </row>
     <row r="61" ht="14" customHeight="1">
@@ -2074,16 +2074,16 @@
         <v>64</v>
       </c>
       <c r="B61" s="4">
-        <v>4732</v>
+        <v>4743</v>
       </c>
       <c r="C61" s="4">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="D61" s="4">
-        <v>2339</v>
+        <v>2350</v>
       </c>
       <c r="E61" s="4">
-        <v>7980</v>
+        <v>8003</v>
       </c>
     </row>
     <row r="62" ht="14" customHeight="1">
@@ -2091,7 +2091,7 @@
         <v>65</v>
       </c>
       <c r="B62" s="4">
-        <v>1737</v>
+        <v>1739</v>
       </c>
       <c r="C62" s="4">
         <v>228</v>
@@ -2100,7 +2100,7 @@
         <v>1038</v>
       </c>
       <c r="E62" s="4">
-        <v>3003</v>
+        <v>3005</v>
       </c>
     </row>
     <row r="63" ht="14" customHeight="1">
@@ -2108,16 +2108,16 @@
         <v>66</v>
       </c>
       <c r="B63" s="4">
-        <v>548606</v>
+        <v>549684</v>
       </c>
       <c r="C63" s="4">
-        <v>59100</v>
+        <v>59159</v>
       </c>
       <c r="D63" s="4">
-        <v>90433</v>
+        <v>90625</v>
       </c>
       <c r="E63" s="4">
-        <v>698139</v>
+        <v>699468</v>
       </c>
     </row>
     <row r="64" ht="14" customHeight="1">
@@ -2125,7 +2125,7 @@
         <v>67</v>
       </c>
       <c r="B64" s="4">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C64" s="4">
         <v>8</v>
@@ -2134,7 +2134,7 @@
         <v>351</v>
       </c>
       <c r="E64" s="4">
-        <v>847</v>
+        <v>848</v>
       </c>
     </row>
     <row r="65" ht="14" customHeight="1">
@@ -2142,16 +2142,16 @@
         <v>68</v>
       </c>
       <c r="B65" s="4">
-        <v>12024</v>
+        <v>12149</v>
       </c>
       <c r="C65" s="4">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D65" s="4">
         <v>3759</v>
       </c>
       <c r="E65" s="4">
-        <v>15888</v>
+        <v>16014</v>
       </c>
     </row>
     <row r="66" ht="14" customHeight="1">
@@ -2159,16 +2159,16 @@
         <v>69</v>
       </c>
       <c r="B66" s="4">
-        <v>1201</v>
+        <v>1203</v>
       </c>
       <c r="C66" s="4">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="D66" s="4">
         <v>756</v>
       </c>
       <c r="E66" s="4">
-        <v>2346</v>
+        <v>2349</v>
       </c>
     </row>
     <row r="67" ht="14" customHeight="1">
@@ -2176,16 +2176,16 @@
         <v>70</v>
       </c>
       <c r="B67" s="4">
-        <v>16867</v>
+        <v>16879</v>
       </c>
       <c r="C67" s="4">
         <v>2427</v>
       </c>
       <c r="D67" s="4">
-        <v>2537</v>
+        <v>2550</v>
       </c>
       <c r="E67" s="4">
-        <v>21831</v>
+        <v>21856</v>
       </c>
     </row>
     <row r="68" ht="14" customHeight="1">
@@ -2193,16 +2193,16 @@
         <v>71</v>
       </c>
       <c r="B68" s="4">
-        <v>4651</v>
+        <v>4655</v>
       </c>
       <c r="C68" s="4">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="D68" s="4">
-        <v>3645</v>
+        <v>3647</v>
       </c>
       <c r="E68" s="4">
-        <v>8656</v>
+        <v>8664</v>
       </c>
     </row>
     <row r="69" ht="14" customHeight="1">
@@ -2210,16 +2210,16 @@
         <v>72</v>
       </c>
       <c r="B69" s="4">
-        <v>57707</v>
+        <v>57793</v>
       </c>
       <c r="C69" s="4">
-        <v>4772</v>
+        <v>4777</v>
       </c>
       <c r="D69" s="4">
-        <v>19036</v>
+        <v>19137</v>
       </c>
       <c r="E69" s="4">
-        <v>81515</v>
+        <v>81707</v>
       </c>
     </row>
     <row r="70" ht="14" customHeight="1">
@@ -2244,16 +2244,16 @@
         <v>74</v>
       </c>
       <c r="B71" s="4">
-        <v>844289</v>
+        <v>845512</v>
       </c>
       <c r="C71" s="4">
-        <v>16714</v>
+        <v>16723</v>
       </c>
       <c r="D71" s="4">
-        <v>266335</v>
+        <v>266500</v>
       </c>
       <c r="E71" s="4">
-        <v>1127338</v>
+        <v>1128735</v>
       </c>
     </row>
     <row r="72" ht="14" customHeight="1">
@@ -2261,16 +2261,16 @@
         <v>75</v>
       </c>
       <c r="B72" s="4">
-        <v>158981</v>
+        <v>159120</v>
       </c>
       <c r="C72" s="4">
-        <v>7048</v>
+        <v>7055</v>
       </c>
       <c r="D72" s="4">
-        <v>15999</v>
+        <v>16098</v>
       </c>
       <c r="E72" s="4">
-        <v>182028</v>
+        <v>182273</v>
       </c>
     </row>
     <row r="73" ht="14" customHeight="1">
@@ -2278,16 +2278,16 @@
         <v>76</v>
       </c>
       <c r="B73" s="4">
-        <v>17890</v>
+        <v>17957</v>
       </c>
       <c r="C73" s="4">
-        <v>1139</v>
+        <v>1142</v>
       </c>
       <c r="D73" s="4">
-        <v>6983</v>
+        <v>7005</v>
       </c>
       <c r="E73" s="4">
-        <v>26012</v>
+        <v>26104</v>
       </c>
     </row>
     <row r="74" ht="14" customHeight="1">
@@ -2295,16 +2295,16 @@
         <v>77</v>
       </c>
       <c r="B74" s="4">
-        <v>12159</v>
+        <v>12171</v>
       </c>
       <c r="C74" s="4">
         <v>413</v>
       </c>
       <c r="D74" s="4">
-        <v>3158</v>
+        <v>3159</v>
       </c>
       <c r="E74" s="4">
-        <v>15730</v>
+        <v>15743</v>
       </c>
     </row>
     <row r="75" ht="14" customHeight="1">
@@ -2312,16 +2312,16 @@
         <v>78</v>
       </c>
       <c r="B75" s="4">
-        <v>25192</v>
+        <v>25205</v>
       </c>
       <c r="C75" s="4">
         <v>820</v>
       </c>
       <c r="D75" s="4">
-        <v>4691</v>
+        <v>4697</v>
       </c>
       <c r="E75" s="4">
-        <v>30703</v>
+        <v>30722</v>
       </c>
     </row>
     <row r="76" ht="14" customHeight="1">
@@ -2329,16 +2329,16 @@
         <v>79</v>
       </c>
       <c r="B76" s="4">
-        <v>14157</v>
+        <v>14193</v>
       </c>
       <c r="C76" s="4">
         <v>442</v>
       </c>
       <c r="D76" s="4">
-        <v>2454</v>
+        <v>2457</v>
       </c>
       <c r="E76" s="4">
-        <v>17053</v>
+        <v>17092</v>
       </c>
     </row>
     <row r="77" ht="14" customHeight="1">
@@ -2363,7 +2363,7 @@
         <v>81</v>
       </c>
       <c r="B78" s="4">
-        <v>2333</v>
+        <v>2340</v>
       </c>
       <c r="C78" s="4">
         <v>116</v>
@@ -2372,7 +2372,7 @@
         <v>359</v>
       </c>
       <c r="E78" s="4">
-        <v>2808</v>
+        <v>2815</v>
       </c>
     </row>
     <row r="79" ht="14" customHeight="1">
@@ -2380,7 +2380,7 @@
         <v>82</v>
       </c>
       <c r="B79" s="4">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="C79" s="4">
         <v>99</v>
@@ -2389,7 +2389,7 @@
         <v>730</v>
       </c>
       <c r="E79" s="4">
-        <v>1256</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="80" ht="14" customHeight="1">
@@ -2397,16 +2397,16 @@
         <v>83</v>
       </c>
       <c r="B80" s="4">
-        <v>631205</v>
+        <v>633326</v>
       </c>
       <c r="C80" s="4">
-        <v>23140</v>
+        <v>23174</v>
       </c>
       <c r="D80" s="4">
-        <v>44779</v>
+        <v>44889</v>
       </c>
       <c r="E80" s="4">
-        <v>699124</v>
+        <v>701389</v>
       </c>
     </row>
     <row r="81" ht="14" customHeight="1">
@@ -2414,16 +2414,16 @@
         <v>84</v>
       </c>
       <c r="B81" s="4">
-        <v>4336</v>
+        <v>4339</v>
       </c>
       <c r="C81" s="4">
         <v>478</v>
       </c>
       <c r="D81" s="4">
-        <v>768</v>
+        <v>770</v>
       </c>
       <c r="E81" s="4">
-        <v>5582</v>
+        <v>5587</v>
       </c>
     </row>
     <row r="82" ht="14" customHeight="1">
@@ -2431,16 +2431,16 @@
         <v>85</v>
       </c>
       <c r="B82" s="4">
-        <v>13717</v>
+        <v>13730</v>
       </c>
       <c r="C82" s="4">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="D82" s="4">
-        <v>5373</v>
+        <v>5390</v>
       </c>
       <c r="E82" s="4">
-        <v>19762</v>
+        <v>19793</v>
       </c>
     </row>
     <row r="83" ht="14" customHeight="1">
@@ -2448,16 +2448,16 @@
         <v>86</v>
       </c>
       <c r="B83" s="4">
-        <v>16680</v>
+        <v>16725</v>
       </c>
       <c r="C83" s="4">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="D83" s="4">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="E83" s="4">
-        <v>18124</v>
+        <v>18173</v>
       </c>
     </row>
     <row r="84" ht="14" customHeight="1">
@@ -2465,16 +2465,16 @@
         <v>87</v>
       </c>
       <c r="B84" s="4">
-        <v>3300</v>
+        <v>3302</v>
       </c>
       <c r="C84" s="4">
         <v>222</v>
       </c>
       <c r="D84" s="4">
-        <v>931</v>
+        <v>933</v>
       </c>
       <c r="E84" s="4">
-        <v>4453</v>
+        <v>4457</v>
       </c>
     </row>
     <row r="85" ht="14" customHeight="1">
@@ -2482,16 +2482,16 @@
         <v>88</v>
       </c>
       <c r="B85" s="4">
-        <v>333766</v>
+        <v>336743</v>
       </c>
       <c r="C85" s="4">
-        <v>10163</v>
+        <v>10179</v>
       </c>
       <c r="D85" s="4">
-        <v>29007</v>
+        <v>29036</v>
       </c>
       <c r="E85" s="4">
-        <v>372936</v>
+        <v>375958</v>
       </c>
     </row>
     <row r="86" ht="14" customHeight="1">
@@ -2499,16 +2499,16 @@
         <v>89</v>
       </c>
       <c r="B86" s="4">
-        <v>1860</v>
+        <v>1869</v>
       </c>
       <c r="C86" s="4">
         <v>50</v>
       </c>
       <c r="D86" s="4">
-        <v>1410</v>
+        <v>1414</v>
       </c>
       <c r="E86" s="4">
-        <v>3320</v>
+        <v>3333</v>
       </c>
     </row>
     <row r="87" ht="14" customHeight="1">
@@ -2516,16 +2516,16 @@
         <v>90</v>
       </c>
       <c r="B87" s="4">
-        <v>15306</v>
+        <v>15320</v>
       </c>
       <c r="C87" s="4">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="D87" s="4">
-        <v>3670</v>
+        <v>3671</v>
       </c>
       <c r="E87" s="4">
-        <v>19396</v>
+        <v>19414</v>
       </c>
     </row>
     <row r="88" ht="14" customHeight="1">
@@ -2550,16 +2550,16 @@
         <v>92</v>
       </c>
       <c r="B89" s="4">
-        <v>2647</v>
+        <v>2652</v>
       </c>
       <c r="C89" s="4">
         <v>173</v>
       </c>
       <c r="D89" s="4">
-        <v>1832</v>
+        <v>1835</v>
       </c>
       <c r="E89" s="4">
-        <v>4652</v>
+        <v>4660</v>
       </c>
     </row>
     <row r="90" ht="14" customHeight="1">
@@ -2567,16 +2567,16 @@
         <v>93</v>
       </c>
       <c r="B90" s="4">
-        <v>12335</v>
+        <v>12345</v>
       </c>
       <c r="C90" s="4">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D90" s="4">
-        <v>5091</v>
+        <v>5098</v>
       </c>
       <c r="E90" s="4">
-        <v>17791</v>
+        <v>17809</v>
       </c>
     </row>
     <row r="91" ht="14" customHeight="1">
@@ -2584,16 +2584,16 @@
         <v>94</v>
       </c>
       <c r="B91" s="4">
-        <v>7610</v>
+        <v>7614</v>
       </c>
       <c r="C91" s="4">
         <v>938</v>
       </c>
       <c r="D91" s="4">
-        <v>2412</v>
+        <v>2420</v>
       </c>
       <c r="E91" s="4">
-        <v>10960</v>
+        <v>10972</v>
       </c>
     </row>
     <row r="92" ht="14" customHeight="1">
@@ -2601,16 +2601,16 @@
         <v>95</v>
       </c>
       <c r="B92" s="4">
-        <v>101196</v>
+        <v>101340</v>
       </c>
       <c r="C92" s="4">
-        <v>3986</v>
+        <v>3994</v>
       </c>
       <c r="D92" s="4">
-        <v>13692</v>
+        <v>13726</v>
       </c>
       <c r="E92" s="4">
-        <v>118874</v>
+        <v>119060</v>
       </c>
     </row>
     <row r="93" ht="14" customHeight="1">
@@ -2618,16 +2618,16 @@
         <v>96</v>
       </c>
       <c r="B93" s="4">
-        <v>47058</v>
+        <v>47125</v>
       </c>
       <c r="C93" s="4">
-        <v>10325</v>
+        <v>10332</v>
       </c>
       <c r="D93" s="4">
-        <v>15046</v>
+        <v>15094</v>
       </c>
       <c r="E93" s="4">
-        <v>72429</v>
+        <v>72551</v>
       </c>
     </row>
     <row r="94" ht="14" customHeight="1">
@@ -2635,7 +2635,7 @@
         <v>97</v>
       </c>
       <c r="B94" s="4">
-        <v>29587</v>
+        <v>30072</v>
       </c>
       <c r="C94" s="4">
         <v>521</v>
@@ -2644,7 +2644,7 @@
         <v>2694</v>
       </c>
       <c r="E94" s="4">
-        <v>32802</v>
+        <v>33287</v>
       </c>
     </row>
     <row r="95" ht="14" customHeight="1">
@@ -2652,16 +2652,16 @@
         <v>98</v>
       </c>
       <c r="B95" s="4">
-        <v>80080</v>
+        <v>80409</v>
       </c>
       <c r="C95" s="4">
-        <v>3898</v>
+        <v>3906</v>
       </c>
       <c r="D95" s="4">
-        <v>16090</v>
+        <v>16119</v>
       </c>
       <c r="E95" s="4">
-        <v>100068</v>
+        <v>100434</v>
       </c>
     </row>
     <row r="96" ht="14" customHeight="1">
@@ -2669,16 +2669,16 @@
         <v>99</v>
       </c>
       <c r="B96" s="4">
-        <v>14145</v>
+        <v>14178</v>
       </c>
       <c r="C96" s="4">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D96" s="4">
-        <v>2434</v>
+        <v>2437</v>
       </c>
       <c r="E96" s="4">
-        <v>16882</v>
+        <v>16919</v>
       </c>
     </row>
     <row r="97" ht="14" customHeight="1">
@@ -2703,7 +2703,7 @@
         <v>101</v>
       </c>
       <c r="B98" s="4">
-        <v>5179</v>
+        <v>5191</v>
       </c>
       <c r="C98" s="4">
         <v>312</v>
@@ -2712,7 +2712,7 @@
         <v>1301</v>
       </c>
       <c r="E98" s="4">
-        <v>6792</v>
+        <v>6804</v>
       </c>
     </row>
     <row r="99" ht="14" customHeight="1">
@@ -2726,10 +2726,10 @@
         <v>651</v>
       </c>
       <c r="D99" s="4">
-        <v>1808</v>
+        <v>1809</v>
       </c>
       <c r="E99" s="4">
-        <v>3712</v>
+        <v>3713</v>
       </c>
     </row>
     <row r="100" ht="14" customHeight="1">
@@ -2743,10 +2743,10 @@
         <v>227</v>
       </c>
       <c r="D100" s="4">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="E100" s="4">
-        <v>2713</v>
+        <v>2714</v>
       </c>
     </row>
     <row r="101" ht="14" customHeight="1">
@@ -2754,16 +2754,16 @@
         <v>104</v>
       </c>
       <c r="B101" s="4">
-        <v>20414</v>
+        <v>20466</v>
       </c>
       <c r="C101" s="4">
-        <v>3254</v>
+        <v>3255</v>
       </c>
       <c r="D101" s="4">
-        <v>7672</v>
+        <v>7769</v>
       </c>
       <c r="E101" s="4">
-        <v>31340</v>
+        <v>31490</v>
       </c>
     </row>
     <row r="102" ht="14" customHeight="1">
@@ -2771,16 +2771,16 @@
         <v>105</v>
       </c>
       <c r="B102" s="4">
-        <v>3886040</v>
+        <v>3897388</v>
       </c>
       <c r="C102" s="4">
-        <v>138843</v>
+        <v>139176</v>
       </c>
       <c r="D102" s="4">
-        <v>347657</v>
+        <v>348430</v>
       </c>
       <c r="E102" s="4">
-        <v>4372540</v>
+        <v>4384994</v>
       </c>
     </row>
     <row r="103" ht="14" customHeight="1">
@@ -2788,16 +2788,16 @@
         <v>106</v>
       </c>
       <c r="B103" s="4">
-        <v>57760</v>
+        <v>57823</v>
       </c>
       <c r="C103" s="4">
-        <v>7704</v>
+        <v>7710</v>
       </c>
       <c r="D103" s="4">
-        <v>8804</v>
+        <v>8831</v>
       </c>
       <c r="E103" s="4">
-        <v>74268</v>
+        <v>74364</v>
       </c>
     </row>
     <row r="104" ht="14" customHeight="1">
@@ -2822,7 +2822,7 @@
         <v>108</v>
       </c>
       <c r="B105" s="4">
-        <v>1219</v>
+        <v>1221</v>
       </c>
       <c r="C105" s="4">
         <v>35</v>
@@ -2831,7 +2831,7 @@
         <v>1440</v>
       </c>
       <c r="E105" s="4">
-        <v>2694</v>
+        <v>2696</v>
       </c>
     </row>
     <row r="106" ht="14" customHeight="1">
@@ -2839,16 +2839,16 @@
         <v>109</v>
       </c>
       <c r="B106" s="4">
-        <v>230634</v>
+        <v>231577</v>
       </c>
       <c r="C106" s="4">
-        <v>10534</v>
+        <v>10543</v>
       </c>
       <c r="D106" s="4">
-        <v>17857</v>
+        <v>17878</v>
       </c>
       <c r="E106" s="4">
-        <v>259025</v>
+        <v>259998</v>
       </c>
     </row>
     <row r="107" ht="14" customHeight="1">
@@ -2856,16 +2856,16 @@
         <v>110</v>
       </c>
       <c r="B107" s="4">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="C107" s="4">
         <v>398</v>
       </c>
       <c r="D107" s="4">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E107" s="4">
-        <v>1475</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="108" ht="14" customHeight="1">
@@ -2873,16 +2873,16 @@
         <v>111</v>
       </c>
       <c r="B108" s="4">
-        <v>25895</v>
+        <v>25935</v>
       </c>
       <c r="C108" s="4">
-        <v>2212</v>
+        <v>2215</v>
       </c>
       <c r="D108" s="4">
-        <v>8585</v>
+        <v>8628</v>
       </c>
       <c r="E108" s="4">
-        <v>36692</v>
+        <v>36778</v>
       </c>
     </row>
     <row r="109" ht="14" customHeight="1">
@@ -2890,16 +2890,16 @@
         <v>112</v>
       </c>
       <c r="B109" s="4">
-        <v>433589</v>
+        <v>434653</v>
       </c>
       <c r="C109" s="4">
-        <v>15343</v>
+        <v>15358</v>
       </c>
       <c r="D109" s="4">
-        <v>149772</v>
+        <v>149940</v>
       </c>
       <c r="E109" s="4">
-        <v>598704</v>
+        <v>599951</v>
       </c>
     </row>
     <row r="110" ht="14" customHeight="1">
@@ -2907,16 +2907,16 @@
         <v>113</v>
       </c>
       <c r="B110" s="4">
-        <v>31858</v>
+        <v>31886</v>
       </c>
       <c r="C110" s="4">
         <v>984</v>
       </c>
       <c r="D110" s="4">
-        <v>6118</v>
+        <v>6134</v>
       </c>
       <c r="E110" s="4">
-        <v>38960</v>
+        <v>39004</v>
       </c>
     </row>
     <row r="111" ht="14" customHeight="1">
@@ -2924,16 +2924,16 @@
         <v>114</v>
       </c>
       <c r="B111" s="4">
-        <v>7849</v>
+        <v>7870</v>
       </c>
       <c r="C111" s="4">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D111" s="4">
-        <v>3203</v>
+        <v>3208</v>
       </c>
       <c r="E111" s="4">
-        <v>11138</v>
+        <v>11165</v>
       </c>
     </row>
     <row r="112" ht="14" customHeight="1">
@@ -2941,16 +2941,16 @@
         <v>115</v>
       </c>
       <c r="B112" s="4">
-        <v>33881</v>
+        <v>33931</v>
       </c>
       <c r="C112" s="4">
         <v>2386</v>
       </c>
       <c r="D112" s="4">
-        <v>19307</v>
+        <v>19389</v>
       </c>
       <c r="E112" s="4">
-        <v>55574</v>
+        <v>55706</v>
       </c>
     </row>
     <row r="113" ht="14" customHeight="1">
@@ -2958,16 +2958,16 @@
         <v>116</v>
       </c>
       <c r="B113" s="4">
-        <v>16511</v>
+        <v>16523</v>
       </c>
       <c r="C113" s="4">
-        <v>1861</v>
+        <v>1862</v>
       </c>
       <c r="D113" s="4">
-        <v>3293</v>
+        <v>3296</v>
       </c>
       <c r="E113" s="4">
-        <v>21665</v>
+        <v>21681</v>
       </c>
     </row>
     <row r="114" ht="14" customHeight="1">
@@ -2975,16 +2975,16 @@
         <v>117</v>
       </c>
       <c r="B114" s="4">
-        <v>14833</v>
+        <v>14846</v>
       </c>
       <c r="C114" s="4">
         <v>364</v>
       </c>
       <c r="D114" s="4">
-        <v>3313</v>
+        <v>3317</v>
       </c>
       <c r="E114" s="4">
-        <v>18510</v>
+        <v>18527</v>
       </c>
     </row>
     <row r="115" ht="14" customHeight="1">
@@ -2992,16 +2992,16 @@
         <v>118</v>
       </c>
       <c r="B115" s="4">
-        <v>16174</v>
+        <v>16216</v>
       </c>
       <c r="C115" s="4">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="D115" s="4">
         <v>4390</v>
       </c>
       <c r="E115" s="4">
-        <v>21061</v>
+        <v>21105</v>
       </c>
     </row>
     <row r="116" ht="14" customHeight="1">
@@ -3009,7 +3009,7 @@
         <v>119</v>
       </c>
       <c r="B116" s="4">
-        <v>2461</v>
+        <v>2465</v>
       </c>
       <c r="C116" s="4">
         <v>32</v>
@@ -3018,7 +3018,7 @@
         <v>1063</v>
       </c>
       <c r="E116" s="4">
-        <v>3556</v>
+        <v>3560</v>
       </c>
     </row>
     <row r="117" ht="14" customHeight="1">
@@ -3026,16 +3026,16 @@
         <v>120</v>
       </c>
       <c r="B117" s="4">
-        <v>74266</v>
+        <v>74411</v>
       </c>
       <c r="C117" s="4">
-        <v>3725</v>
+        <v>3728</v>
       </c>
       <c r="D117" s="4">
-        <v>10570</v>
+        <v>10589</v>
       </c>
       <c r="E117" s="4">
-        <v>88561</v>
+        <v>88728</v>
       </c>
     </row>
     <row r="118" ht="14" customHeight="1">
@@ -3043,16 +3043,16 @@
         <v>121</v>
       </c>
       <c r="B118" s="4">
-        <v>8338</v>
+        <v>8342</v>
       </c>
       <c r="C118" s="4">
-        <v>1334</v>
+        <v>1337</v>
       </c>
       <c r="D118" s="4">
         <v>3815</v>
       </c>
       <c r="E118" s="4">
-        <v>13487</v>
+        <v>13494</v>
       </c>
     </row>
     <row r="119" ht="14" customHeight="1">
@@ -3066,10 +3066,10 @@
         <v>11</v>
       </c>
       <c r="D119" s="4">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E119" s="4">
-        <v>682</v>
+        <v>683</v>
       </c>
     </row>
     <row r="120" ht="14" customHeight="1">
@@ -3077,7 +3077,7 @@
         <v>123</v>
       </c>
       <c r="B120" s="4">
-        <v>1860</v>
+        <v>1864</v>
       </c>
       <c r="C120" s="4">
         <v>195</v>
@@ -3086,7 +3086,7 @@
         <v>397</v>
       </c>
       <c r="E120" s="4">
-        <v>2452</v>
+        <v>2456</v>
       </c>
     </row>
     <row r="121" ht="14" customHeight="1">
@@ -3094,16 +3094,16 @@
         <v>124</v>
       </c>
       <c r="B121" s="4">
-        <v>6867</v>
+        <v>6876</v>
       </c>
       <c r="C121" s="4">
         <v>204</v>
       </c>
       <c r="D121" s="4">
-        <v>1812</v>
+        <v>1839</v>
       </c>
       <c r="E121" s="4">
-        <v>8883</v>
+        <v>8919</v>
       </c>
     </row>
     <row r="122" ht="14" customHeight="1">
@@ -3111,16 +3111,16 @@
         <v>125</v>
       </c>
       <c r="B122" s="4">
-        <v>13463</v>
+        <v>13654</v>
       </c>
       <c r="C122" s="4">
         <v>2570</v>
       </c>
       <c r="D122" s="4">
-        <v>4083</v>
+        <v>4091</v>
       </c>
       <c r="E122" s="4">
-        <v>20116</v>
+        <v>20315</v>
       </c>
     </row>
     <row r="123" ht="14" customHeight="1">
@@ -3128,7 +3128,7 @@
         <v>126</v>
       </c>
       <c r="B123" s="4">
-        <v>1776</v>
+        <v>1777</v>
       </c>
       <c r="C123" s="4">
         <v>42</v>
@@ -3137,7 +3137,7 @@
         <v>267</v>
       </c>
       <c r="E123" s="4">
-        <v>2085</v>
+        <v>2086</v>
       </c>
     </row>
     <row r="124" ht="14" customHeight="1">
@@ -3145,16 +3145,16 @@
         <v>127</v>
       </c>
       <c r="B124" s="4">
-        <v>157111</v>
+        <v>157657</v>
       </c>
       <c r="C124" s="4">
-        <v>12382</v>
+        <v>12393</v>
       </c>
       <c r="D124" s="4">
-        <v>36715</v>
+        <v>36763</v>
       </c>
       <c r="E124" s="4">
-        <v>206208</v>
+        <v>206813</v>
       </c>
     </row>
     <row r="125" ht="14" customHeight="1">
@@ -3162,16 +3162,16 @@
         <v>128</v>
       </c>
       <c r="B125" s="4">
-        <v>13369</v>
+        <v>13392</v>
       </c>
       <c r="C125" s="4">
         <v>547</v>
       </c>
       <c r="D125" s="4">
-        <v>3372</v>
+        <v>3374</v>
       </c>
       <c r="E125" s="4">
-        <v>17288</v>
+        <v>17313</v>
       </c>
     </row>
     <row r="126" ht="14" customHeight="1">
@@ -3179,16 +3179,16 @@
         <v>129</v>
       </c>
       <c r="B126" s="4">
-        <v>46235</v>
+        <v>46280</v>
       </c>
       <c r="C126" s="4">
-        <v>7843</v>
+        <v>7844</v>
       </c>
       <c r="D126" s="4">
-        <v>15335</v>
+        <v>15454</v>
       </c>
       <c r="E126" s="4">
-        <v>69413</v>
+        <v>69578</v>
       </c>
     </row>
     <row r="127" ht="14" customHeight="1">
@@ -3196,16 +3196,16 @@
         <v>130</v>
       </c>
       <c r="B127" s="4">
-        <v>112914</v>
+        <v>113086</v>
       </c>
       <c r="C127" s="4">
-        <v>6587</v>
+        <v>6599</v>
       </c>
       <c r="D127" s="4">
-        <v>16621</v>
+        <v>16650</v>
       </c>
       <c r="E127" s="4">
-        <v>136122</v>
+        <v>136335</v>
       </c>
     </row>
     <row r="128" ht="14" customHeight="1">
@@ -3213,16 +3213,16 @@
         <v>131</v>
       </c>
       <c r="B128" s="4">
-        <v>5789</v>
+        <v>5795</v>
       </c>
       <c r="C128" s="4">
         <v>197</v>
       </c>
       <c r="D128" s="4">
-        <v>3051</v>
+        <v>3053</v>
       </c>
       <c r="E128" s="4">
-        <v>9037</v>
+        <v>9045</v>
       </c>
     </row>
     <row r="129" ht="14" customHeight="1">
@@ -3230,16 +3230,16 @@
         <v>132</v>
       </c>
       <c r="B129" s="4">
-        <v>13964</v>
+        <v>13978</v>
       </c>
       <c r="C129" s="4">
         <v>461</v>
       </c>
       <c r="D129" s="4">
-        <v>4928</v>
+        <v>4931</v>
       </c>
       <c r="E129" s="4">
-        <v>19353</v>
+        <v>19370</v>
       </c>
     </row>
     <row r="130" ht="14" customHeight="1">
@@ -3247,16 +3247,16 @@
         <v>133</v>
       </c>
       <c r="B130" s="4">
-        <v>99533</v>
+        <v>99682</v>
       </c>
       <c r="C130" s="4">
-        <v>5181</v>
+        <v>5185</v>
       </c>
       <c r="D130" s="4">
-        <v>17662</v>
+        <v>17685</v>
       </c>
       <c r="E130" s="4">
-        <v>122376</v>
+        <v>122552</v>
       </c>
     </row>
     <row r="131" ht="14" customHeight="1">
@@ -3264,16 +3264,16 @@
         <v>134</v>
       </c>
       <c r="B131" s="4">
-        <v>22914</v>
+        <v>22963</v>
       </c>
       <c r="C131" s="4">
-        <v>1611</v>
+        <v>1612</v>
       </c>
       <c r="D131" s="4">
-        <v>8986</v>
+        <v>8999</v>
       </c>
       <c r="E131" s="4">
-        <v>33511</v>
+        <v>33574</v>
       </c>
     </row>
     <row r="132" ht="14" customHeight="1">
@@ -3298,7 +3298,7 @@
         <v>136</v>
       </c>
       <c r="B133" s="4">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C133" s="4">
         <v>1</v>
@@ -3307,7 +3307,7 @@
         <v>378</v>
       </c>
       <c r="E133" s="4">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
     <row r="134" ht="14" customHeight="1">
@@ -3315,16 +3315,16 @@
         <v>137</v>
       </c>
       <c r="B134" s="4">
-        <v>30555</v>
+        <v>30590</v>
       </c>
       <c r="C134" s="4">
         <v>880</v>
       </c>
       <c r="D134" s="4">
-        <v>19215</v>
+        <v>19253</v>
       </c>
       <c r="E134" s="4">
-        <v>50650</v>
+        <v>50723</v>
       </c>
     </row>
     <row r="135" ht="14" customHeight="1">
@@ -3338,10 +3338,10 @@
         <v>39</v>
       </c>
       <c r="D135" s="4">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="E135" s="4">
-        <v>1981</v>
+        <v>1982</v>
       </c>
     </row>
     <row r="136" ht="14" customHeight="1">
@@ -3366,7 +3366,7 @@
         <v>140</v>
       </c>
       <c r="B137" s="4">
-        <v>2079</v>
+        <v>2080</v>
       </c>
       <c r="C137" s="4">
         <v>43</v>
@@ -3375,7 +3375,7 @@
         <v>142</v>
       </c>
       <c r="E137" s="4">
-        <v>2264</v>
+        <v>2265</v>
       </c>
     </row>
     <row r="138" ht="14" customHeight="1">
@@ -3383,16 +3383,16 @@
         <v>141</v>
       </c>
       <c r="B138" s="4">
-        <v>25868</v>
+        <v>25904</v>
       </c>
       <c r="C138" s="4">
         <v>4423</v>
       </c>
       <c r="D138" s="4">
-        <v>6923</v>
+        <v>6926</v>
       </c>
       <c r="E138" s="4">
-        <v>37214</v>
+        <v>37253</v>
       </c>
     </row>
     <row r="139" ht="14" customHeight="1">
@@ -3400,16 +3400,16 @@
         <v>142</v>
       </c>
       <c r="B139" s="4">
-        <v>651</v>
+        <v>654</v>
       </c>
       <c r="C139" s="4">
         <v>41</v>
       </c>
       <c r="D139" s="4">
-        <v>2546</v>
+        <v>2549</v>
       </c>
       <c r="E139" s="4">
-        <v>3238</v>
+        <v>3244</v>
       </c>
     </row>
     <row r="140" ht="14" customHeight="1">
@@ -3417,7 +3417,7 @@
         <v>143</v>
       </c>
       <c r="B140" s="4">
-        <v>7047</v>
+        <v>7134</v>
       </c>
       <c r="C140" s="4">
         <v>289</v>
@@ -3426,7 +3426,7 @@
         <v>438</v>
       </c>
       <c r="E140" s="4">
-        <v>7774</v>
+        <v>7861</v>
       </c>
     </row>
     <row r="141" ht="14" customHeight="1">
@@ -3434,16 +3434,16 @@
         <v>144</v>
       </c>
       <c r="B141" s="4">
-        <v>21701</v>
+        <v>21731</v>
       </c>
       <c r="C141" s="4">
         <v>2301</v>
       </c>
       <c r="D141" s="4">
-        <v>4130</v>
+        <v>4218</v>
       </c>
       <c r="E141" s="4">
-        <v>28132</v>
+        <v>28250</v>
       </c>
     </row>
     <row r="142" ht="14" customHeight="1">
@@ -3451,16 +3451,16 @@
         <v>145</v>
       </c>
       <c r="B142" s="4">
-        <v>5478</v>
+        <v>5485</v>
       </c>
       <c r="C142" s="4">
         <v>92</v>
       </c>
       <c r="D142" s="4">
-        <v>4702</v>
+        <v>4705</v>
       </c>
       <c r="E142" s="4">
-        <v>10272</v>
+        <v>10282</v>
       </c>
     </row>
     <row r="143" ht="14" customHeight="1">
@@ -3468,16 +3468,16 @@
         <v>146</v>
       </c>
       <c r="B143" s="4">
-        <v>16175</v>
+        <v>16220</v>
       </c>
       <c r="C143" s="4">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="D143" s="4">
-        <v>3660</v>
+        <v>3662</v>
       </c>
       <c r="E143" s="4">
-        <v>20458</v>
+        <v>20507</v>
       </c>
     </row>
     <row r="144" ht="14" customHeight="1">
@@ -3485,16 +3485,16 @@
         <v>147</v>
       </c>
       <c r="B144" s="4">
-        <v>11378</v>
+        <v>11393</v>
       </c>
       <c r="C144" s="4">
         <v>651</v>
       </c>
       <c r="D144" s="4">
-        <v>3121</v>
+        <v>3182</v>
       </c>
       <c r="E144" s="4">
-        <v>15150</v>
+        <v>15226</v>
       </c>
     </row>
     <row r="145" ht="14" customHeight="1">
@@ -3502,16 +3502,16 @@
         <v>148</v>
       </c>
       <c r="B145" s="4">
-        <v>7832</v>
+        <v>7840</v>
       </c>
       <c r="C145" s="4">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D145" s="4">
-        <v>2975</v>
+        <v>2976</v>
       </c>
       <c r="E145" s="4">
-        <v>11031</v>
+        <v>11041</v>
       </c>
     </row>
     <row r="146" ht="14" customHeight="1">
@@ -3519,16 +3519,16 @@
         <v>149</v>
       </c>
       <c r="B146" s="4">
-        <v>9280</v>
+        <v>9314</v>
       </c>
       <c r="C146" s="4">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="D146" s="4">
-        <v>1987</v>
+        <v>1993</v>
       </c>
       <c r="E146" s="4">
-        <v>11761</v>
+        <v>11802</v>
       </c>
     </row>
     <row r="147" ht="14" customHeight="1">
@@ -3536,16 +3536,16 @@
         <v>150</v>
       </c>
       <c r="B147" s="4">
-        <v>50947</v>
+        <v>51163</v>
       </c>
       <c r="C147" s="4">
-        <v>3046</v>
+        <v>3049</v>
       </c>
       <c r="D147" s="4">
-        <v>6477</v>
+        <v>6492</v>
       </c>
       <c r="E147" s="4">
-        <v>60470</v>
+        <v>60704</v>
       </c>
     </row>
     <row r="148" ht="14" customHeight="1">
@@ -3553,16 +3553,16 @@
         <v>151</v>
       </c>
       <c r="B148" s="4">
-        <v>28906</v>
+        <v>28928</v>
       </c>
       <c r="C148" s="4">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="D148" s="4">
-        <v>8029</v>
+        <v>8045</v>
       </c>
       <c r="E148" s="4">
-        <v>37534</v>
+        <v>37574</v>
       </c>
     </row>
     <row r="149" ht="14" customHeight="1">
@@ -3576,10 +3576,10 @@
         <v>193</v>
       </c>
       <c r="D149" s="4">
-        <v>104</v>
+        <v>143</v>
       </c>
       <c r="E149" s="4">
-        <v>558</v>
+        <v>597</v>
       </c>
     </row>
     <row r="150" ht="14" customHeight="1">
@@ -3587,16 +3587,16 @@
         <v>153</v>
       </c>
       <c r="B150" s="4">
-        <v>5157</v>
+        <v>5161</v>
       </c>
       <c r="C150" s="4">
         <v>885</v>
       </c>
       <c r="D150" s="4">
-        <v>857</v>
+        <v>861</v>
       </c>
       <c r="E150" s="4">
-        <v>6899</v>
+        <v>6907</v>
       </c>
     </row>
     <row r="151" ht="14" customHeight="1">
@@ -3604,16 +3604,16 @@
         <v>154</v>
       </c>
       <c r="B151" s="4">
-        <v>10366</v>
+        <v>10390</v>
       </c>
       <c r="C151" s="4">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D151" s="4">
         <v>1514</v>
       </c>
       <c r="E151" s="4">
-        <v>12213</v>
+        <v>12238</v>
       </c>
     </row>
     <row r="152" ht="14" customHeight="1">
@@ -3638,16 +3638,16 @@
         <v>156</v>
       </c>
       <c r="B153" s="4">
-        <v>194991</v>
+        <v>195685</v>
       </c>
       <c r="C153" s="4">
-        <v>6500</v>
+        <v>6507</v>
       </c>
       <c r="D153" s="4">
-        <v>92511</v>
+        <v>92709</v>
       </c>
       <c r="E153" s="4">
-        <v>294002</v>
+        <v>294901</v>
       </c>
     </row>
     <row r="154" ht="14" customHeight="1">
@@ -3655,16 +3655,16 @@
         <v>157</v>
       </c>
       <c r="B154" s="4">
-        <v>2882</v>
+        <v>2886</v>
       </c>
       <c r="C154" s="4">
         <v>97</v>
       </c>
       <c r="D154" s="4">
-        <v>2134</v>
+        <v>2137</v>
       </c>
       <c r="E154" s="4">
-        <v>5113</v>
+        <v>5120</v>
       </c>
     </row>
     <row r="155" ht="14" customHeight="1">
@@ -3672,16 +3672,16 @@
         <v>158</v>
       </c>
       <c r="B155" s="4">
-        <v>12087</v>
+        <v>12288</v>
       </c>
       <c r="C155" s="4">
         <v>169</v>
       </c>
       <c r="D155" s="4">
-        <v>2180</v>
+        <v>2181</v>
       </c>
       <c r="E155" s="4">
-        <v>14436</v>
+        <v>14638</v>
       </c>
     </row>
     <row r="156" ht="14" customHeight="1">
@@ -3689,16 +3689,16 @@
         <v>159</v>
       </c>
       <c r="B156" s="4">
-        <v>2379</v>
+        <v>2381</v>
       </c>
       <c r="C156" s="4">
         <v>790</v>
       </c>
       <c r="D156" s="4">
-        <v>1627</v>
+        <v>1673</v>
       </c>
       <c r="E156" s="4">
-        <v>4796</v>
+        <v>4844</v>
       </c>
     </row>
     <row r="157" ht="14" customHeight="1">
@@ -3709,13 +3709,13 @@
         <v>1207</v>
       </c>
       <c r="C157" s="4">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D157" s="4">
         <v>561</v>
       </c>
       <c r="E157" s="4">
-        <v>1900</v>
+        <v>1901</v>
       </c>
     </row>
     <row r="158" ht="14" customHeight="1">
@@ -3729,10 +3729,10 @@
         <v>59</v>
       </c>
       <c r="D158" s="4">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="E158" s="4">
-        <v>2348</v>
+        <v>2349</v>
       </c>
     </row>
     <row r="159" ht="14" customHeight="1">
@@ -3740,16 +3740,16 @@
         <v>162</v>
       </c>
       <c r="B159" s="4">
-        <v>31391</v>
+        <v>31522</v>
       </c>
       <c r="C159" s="4">
         <v>746</v>
       </c>
       <c r="D159" s="4">
-        <v>2470</v>
+        <v>2476</v>
       </c>
       <c r="E159" s="4">
-        <v>34607</v>
+        <v>34744</v>
       </c>
     </row>
     <row r="160" ht="14" customHeight="1">
@@ -3757,16 +3757,16 @@
         <v>163</v>
       </c>
       <c r="B160" s="4">
-        <v>56670</v>
+        <v>56993</v>
       </c>
       <c r="C160" s="4">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="D160" s="4">
         <v>7896</v>
       </c>
       <c r="E160" s="4">
-        <v>64966</v>
+        <v>65291</v>
       </c>
     </row>
     <row r="161" ht="14" customHeight="1">
@@ -3774,16 +3774,16 @@
         <v>164</v>
       </c>
       <c r="B161" s="4">
-        <v>2307</v>
+        <v>2308</v>
       </c>
       <c r="C161" s="4">
         <v>44</v>
       </c>
       <c r="D161" s="4">
-        <v>1292</v>
+        <v>1294</v>
       </c>
       <c r="E161" s="4">
-        <v>3643</v>
+        <v>3646</v>
       </c>
     </row>
     <row r="162" ht="14" customHeight="1">
@@ -3791,16 +3791,16 @@
         <v>165</v>
       </c>
       <c r="B162" s="4">
-        <v>225104</v>
+        <v>225941</v>
       </c>
       <c r="C162" s="4">
-        <v>9779</v>
+        <v>9789</v>
       </c>
       <c r="D162" s="4">
-        <v>51139</v>
+        <v>51202</v>
       </c>
       <c r="E162" s="4">
-        <v>286022</v>
+        <v>286932</v>
       </c>
     </row>
     <row r="163" ht="14" customHeight="1">
@@ -3825,16 +3825,16 @@
         <v>167</v>
       </c>
       <c r="B164" s="4">
-        <v>28089</v>
+        <v>28160</v>
       </c>
       <c r="C164" s="4">
         <v>1264</v>
       </c>
       <c r="D164" s="4">
-        <v>6033</v>
+        <v>6041</v>
       </c>
       <c r="E164" s="4">
-        <v>35386</v>
+        <v>35465</v>
       </c>
     </row>
     <row r="165" ht="14" customHeight="1">
@@ -3842,7 +3842,7 @@
         <v>168</v>
       </c>
       <c r="B165" s="4">
-        <v>2029</v>
+        <v>2031</v>
       </c>
       <c r="C165" s="4">
         <v>21</v>
@@ -3851,7 +3851,7 @@
         <v>309</v>
       </c>
       <c r="E165" s="4">
-        <v>2359</v>
+        <v>2361</v>
       </c>
     </row>
     <row r="166" ht="14" customHeight="1">
@@ -3859,16 +3859,16 @@
         <v>169</v>
       </c>
       <c r="B166" s="4">
-        <v>44795</v>
+        <v>44830</v>
       </c>
       <c r="C166" s="4">
-        <v>5902</v>
+        <v>5910</v>
       </c>
       <c r="D166" s="4">
-        <v>38506</v>
+        <v>38517</v>
       </c>
       <c r="E166" s="4">
-        <v>89203</v>
+        <v>89257</v>
       </c>
     </row>
     <row r="167" ht="14" customHeight="1">
@@ -3876,16 +3876,16 @@
         <v>170</v>
       </c>
       <c r="B167" s="4">
-        <v>15904</v>
+        <v>15920</v>
       </c>
       <c r="C167" s="4">
         <v>878</v>
       </c>
       <c r="D167" s="4">
-        <v>6303</v>
+        <v>6330</v>
       </c>
       <c r="E167" s="4">
-        <v>23085</v>
+        <v>23128</v>
       </c>
     </row>
     <row r="168" ht="14" customHeight="1">
@@ -3893,7 +3893,7 @@
         <v>171</v>
       </c>
       <c r="B168" s="4">
-        <v>4365</v>
+        <v>4369</v>
       </c>
       <c r="C168" s="4">
         <v>90</v>
@@ -3902,7 +3902,7 @@
         <v>1347</v>
       </c>
       <c r="E168" s="4">
-        <v>5802</v>
+        <v>5806</v>
       </c>
     </row>
     <row r="169" ht="14" customHeight="1">
@@ -3910,16 +3910,16 @@
         <v>172</v>
       </c>
       <c r="B169" s="4">
-        <v>4717</v>
+        <v>4722</v>
       </c>
       <c r="C169" s="4">
         <v>51</v>
       </c>
       <c r="D169" s="4">
-        <v>2571</v>
+        <v>2572</v>
       </c>
       <c r="E169" s="4">
-        <v>7339</v>
+        <v>7345</v>
       </c>
     </row>
     <row r="170" ht="14" customHeight="1">
@@ -3927,16 +3927,16 @@
         <v>173</v>
       </c>
       <c r="B170" s="4">
-        <v>10200</v>
+        <v>10220</v>
       </c>
       <c r="C170" s="4">
         <v>891</v>
       </c>
       <c r="D170" s="4">
-        <v>2956</v>
+        <v>2962</v>
       </c>
       <c r="E170" s="4">
-        <v>14047</v>
+        <v>14073</v>
       </c>
     </row>
     <row r="171" ht="14" customHeight="1">
@@ -3944,16 +3944,16 @@
         <v>174</v>
       </c>
       <c r="B171" s="4">
-        <v>353422</v>
+        <v>354773</v>
       </c>
       <c r="C171" s="4">
-        <v>17160</v>
+        <v>17208</v>
       </c>
       <c r="D171" s="4">
-        <v>45955</v>
+        <v>46015</v>
       </c>
       <c r="E171" s="4">
-        <v>416537</v>
+        <v>417996</v>
       </c>
     </row>
     <row r="172" ht="14" customHeight="1">
@@ -3961,16 +3961,16 @@
         <v>175</v>
       </c>
       <c r="B172" s="4">
-        <v>7398</v>
+        <v>7400</v>
       </c>
       <c r="C172" s="4">
         <v>887</v>
       </c>
       <c r="D172" s="4">
-        <v>1710</v>
+        <v>1711</v>
       </c>
       <c r="E172" s="4">
-        <v>9995</v>
+        <v>9998</v>
       </c>
     </row>
     <row r="173" ht="14" customHeight="1">
@@ -3978,16 +3978,16 @@
         <v>176</v>
       </c>
       <c r="B173" s="4">
-        <v>5496</v>
+        <v>5499</v>
       </c>
       <c r="C173" s="4">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="D173" s="4">
-        <v>4134</v>
+        <v>4136</v>
       </c>
       <c r="E173" s="4">
-        <v>10317</v>
+        <v>10324</v>
       </c>
     </row>
     <row r="174" ht="14" customHeight="1">
@@ -4012,16 +4012,16 @@
         <v>178</v>
       </c>
       <c r="B175" s="4">
-        <v>40362</v>
+        <v>40444</v>
       </c>
       <c r="C175" s="4">
-        <v>1192</v>
+        <v>1194</v>
       </c>
       <c r="D175" s="4">
-        <v>7491</v>
+        <v>7508</v>
       </c>
       <c r="E175" s="4">
-        <v>49045</v>
+        <v>49146</v>
       </c>
     </row>
     <row r="176" ht="14" customHeight="1">
@@ -4029,16 +4029,16 @@
         <v>179</v>
       </c>
       <c r="B176" s="4">
-        <v>24957</v>
+        <v>25115</v>
       </c>
       <c r="C176" s="4">
-        <v>1591</v>
+        <v>1595</v>
       </c>
       <c r="D176" s="4">
-        <v>8807</v>
+        <v>8818</v>
       </c>
       <c r="E176" s="4">
-        <v>35355</v>
+        <v>35528</v>
       </c>
     </row>
     <row r="177" ht="14" customHeight="1">
@@ -4046,16 +4046,16 @@
         <v>180</v>
       </c>
       <c r="B177" s="4">
-        <v>3531</v>
+        <v>3562</v>
       </c>
       <c r="C177" s="4">
         <v>774</v>
       </c>
       <c r="D177" s="4">
-        <v>2071</v>
+        <v>2074</v>
       </c>
       <c r="E177" s="4">
-        <v>6376</v>
+        <v>6410</v>
       </c>
     </row>
     <row r="178" ht="14" customHeight="1">
@@ -4063,16 +4063,16 @@
         <v>181</v>
       </c>
       <c r="B178" s="4">
-        <v>8607</v>
+        <v>8608</v>
       </c>
       <c r="C178" s="4">
         <v>149</v>
       </c>
       <c r="D178" s="4">
-        <v>3085</v>
+        <v>3087</v>
       </c>
       <c r="E178" s="4">
-        <v>11841</v>
+        <v>11844</v>
       </c>
     </row>
     <row r="179" ht="14" customHeight="1">
@@ -4080,16 +4080,16 @@
         <v>182</v>
       </c>
       <c r="B179" s="4">
-        <v>207573</v>
+        <v>208018</v>
       </c>
       <c r="C179" s="4">
-        <v>41337</v>
+        <v>41347</v>
       </c>
       <c r="D179" s="4">
-        <v>54252</v>
+        <v>54363</v>
       </c>
       <c r="E179" s="4">
-        <v>303162</v>
+        <v>303728</v>
       </c>
     </row>
     <row r="180" ht="14" customHeight="1">
@@ -4097,16 +4097,16 @@
         <v>183</v>
       </c>
       <c r="B180" s="4">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="C180" s="4">
         <v>274</v>
       </c>
       <c r="D180" s="4">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="E180" s="4">
-        <v>1106</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="181" ht="14" customHeight="1">
@@ -4131,16 +4131,16 @@
         <v>185</v>
       </c>
       <c r="B182" s="4">
-        <v>28703</v>
+        <v>28920</v>
       </c>
       <c r="C182" s="4">
-        <v>5462</v>
+        <v>5467</v>
       </c>
       <c r="D182" s="4">
-        <v>10963</v>
+        <v>10975</v>
       </c>
       <c r="E182" s="4">
-        <v>45128</v>
+        <v>45362</v>
       </c>
     </row>
     <row r="183" ht="14" customHeight="1">
@@ -4148,16 +4148,16 @@
         <v>186</v>
       </c>
       <c r="B183" s="4">
-        <v>13034</v>
+        <v>13053</v>
       </c>
       <c r="C183" s="4">
         <v>930</v>
       </c>
       <c r="D183" s="4">
-        <v>5242</v>
+        <v>5245</v>
       </c>
       <c r="E183" s="4">
-        <v>19206</v>
+        <v>19228</v>
       </c>
     </row>
     <row r="184" ht="14" customHeight="1">
@@ -4165,16 +4165,16 @@
         <v>187</v>
       </c>
       <c r="B184" s="4">
-        <v>8815</v>
+        <v>8826</v>
       </c>
       <c r="C184" s="4">
         <v>1076</v>
       </c>
       <c r="D184" s="4">
-        <v>3221</v>
+        <v>3227</v>
       </c>
       <c r="E184" s="4">
-        <v>13112</v>
+        <v>13129</v>
       </c>
     </row>
     <row r="185" ht="14" customHeight="1">
@@ -4182,16 +4182,16 @@
         <v>188</v>
       </c>
       <c r="B185" s="4">
-        <v>67135</v>
+        <v>67235</v>
       </c>
       <c r="C185" s="4">
-        <v>5884</v>
+        <v>5888</v>
       </c>
       <c r="D185" s="4">
-        <v>17801</v>
+        <v>17816</v>
       </c>
       <c r="E185" s="4">
-        <v>90820</v>
+        <v>90939</v>
       </c>
     </row>
     <row r="186" ht="14" customHeight="1">
@@ -4199,7 +4199,7 @@
         <v>189</v>
       </c>
       <c r="B186" s="4">
-        <v>1953</v>
+        <v>1956</v>
       </c>
       <c r="C186" s="4">
         <v>235</v>
@@ -4208,7 +4208,7 @@
         <v>1248</v>
       </c>
       <c r="E186" s="4">
-        <v>3436</v>
+        <v>3439</v>
       </c>
     </row>
     <row r="187" ht="14" customHeight="1">
@@ -4216,16 +4216,16 @@
         <v>190</v>
       </c>
       <c r="B187" s="4">
-        <v>10109</v>
+        <v>10111</v>
       </c>
       <c r="C187" s="4">
         <v>101</v>
       </c>
       <c r="D187" s="4">
-        <v>1125</v>
+        <v>1126</v>
       </c>
       <c r="E187" s="4">
-        <v>11335</v>
+        <v>11338</v>
       </c>
     </row>
     <row r="188" ht="14" customHeight="1">
@@ -4233,16 +4233,16 @@
         <v>191</v>
       </c>
       <c r="B188" s="4">
-        <v>34552</v>
+        <v>34616</v>
       </c>
       <c r="C188" s="4">
-        <v>1186</v>
+        <v>1187</v>
       </c>
       <c r="D188" s="4">
-        <v>6118</v>
+        <v>6223</v>
       </c>
       <c r="E188" s="4">
-        <v>41856</v>
+        <v>42026</v>
       </c>
     </row>
     <row r="189" ht="14" customHeight="1">
@@ -4250,16 +4250,16 @@
         <v>192</v>
       </c>
       <c r="B189" s="4">
-        <v>71528</v>
+        <v>71637</v>
       </c>
       <c r="C189" s="4">
-        <v>7156</v>
+        <v>7158</v>
       </c>
       <c r="D189" s="4">
-        <v>12652</v>
+        <v>12673</v>
       </c>
       <c r="E189" s="4">
-        <v>91336</v>
+        <v>91468</v>
       </c>
     </row>
     <row r="190" ht="14" customHeight="1">
@@ -4284,16 +4284,16 @@
         <v>194</v>
       </c>
       <c r="B191" s="4">
-        <v>2766</v>
+        <v>2768</v>
       </c>
       <c r="C191" s="4">
         <v>389</v>
       </c>
       <c r="D191" s="4">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="E191" s="4">
-        <v>3871</v>
+        <v>3874</v>
       </c>
     </row>
     <row r="192" ht="14" customHeight="1">
@@ -4301,16 +4301,16 @@
         <v>195</v>
       </c>
       <c r="B192" s="4">
-        <v>46764</v>
+        <v>46850</v>
       </c>
       <c r="C192" s="4">
-        <v>14570</v>
+        <v>14575</v>
       </c>
       <c r="D192" s="4">
-        <v>12093</v>
+        <v>12148</v>
       </c>
       <c r="E192" s="4">
-        <v>73427</v>
+        <v>73573</v>
       </c>
     </row>
     <row r="193" ht="14" customHeight="1">
@@ -4318,7 +4318,7 @@
         <v>196</v>
       </c>
       <c r="B193" s="4">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="C193" s="4">
         <v>30</v>
@@ -4327,7 +4327,7 @@
         <v>338</v>
       </c>
       <c r="E193" s="4">
-        <v>1261</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="194" ht="14" customHeight="1">
@@ -4335,16 +4335,16 @@
         <v>197</v>
       </c>
       <c r="B194" s="4">
-        <v>1832</v>
+        <v>1835</v>
       </c>
       <c r="C194" s="4">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D194" s="4">
         <v>519</v>
       </c>
       <c r="E194" s="4">
-        <v>2421</v>
+        <v>2425</v>
       </c>
     </row>
     <row r="195" ht="14" customHeight="1">
@@ -4352,16 +4352,16 @@
         <v>198</v>
       </c>
       <c r="B195" s="4">
-        <v>5881</v>
+        <v>5888</v>
       </c>
       <c r="C195" s="4">
         <v>541</v>
       </c>
       <c r="D195" s="4">
-        <v>1918</v>
+        <v>1969</v>
       </c>
       <c r="E195" s="4">
-        <v>8340</v>
+        <v>8398</v>
       </c>
     </row>
     <row r="196" ht="14" customHeight="1">
@@ -4369,16 +4369,16 @@
         <v>199</v>
       </c>
       <c r="B196" s="4">
-        <v>6587</v>
+        <v>6618</v>
       </c>
       <c r="C196" s="4">
         <v>166</v>
       </c>
       <c r="D196" s="4">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="E196" s="4">
-        <v>7654</v>
+        <v>7686</v>
       </c>
     </row>
     <row r="197" ht="14" customHeight="1">
@@ -4386,16 +4386,16 @@
         <v>200</v>
       </c>
       <c r="B197" s="4">
-        <v>3881</v>
+        <v>3886</v>
       </c>
       <c r="C197" s="4">
         <v>389</v>
       </c>
       <c r="D197" s="4">
-        <v>3293</v>
+        <v>3362</v>
       </c>
       <c r="E197" s="4">
-        <v>7563</v>
+        <v>7637</v>
       </c>
     </row>
     <row r="198" ht="14" customHeight="1">
@@ -4420,16 +4420,16 @@
         <v>202</v>
       </c>
       <c r="B199" s="4">
-        <v>11297</v>
+        <v>11335</v>
       </c>
       <c r="C199" s="4">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D199" s="4">
-        <v>6797</v>
+        <v>6808</v>
       </c>
       <c r="E199" s="4">
-        <v>18372</v>
+        <v>18422</v>
       </c>
     </row>
     <row r="200" ht="14" customHeight="1">
@@ -4437,16 +4437,16 @@
         <v>203</v>
       </c>
       <c r="B200" s="4">
-        <v>70996</v>
+        <v>71108</v>
       </c>
       <c r="C200" s="4">
-        <v>5195</v>
+        <v>5201</v>
       </c>
       <c r="D200" s="4">
-        <v>5470</v>
+        <v>5478</v>
       </c>
       <c r="E200" s="4">
-        <v>81661</v>
+        <v>81787</v>
       </c>
     </row>
     <row r="201" ht="14" customHeight="1">
@@ -4454,16 +4454,16 @@
         <v>204</v>
       </c>
       <c r="B201" s="4">
-        <v>5645</v>
+        <v>5647</v>
       </c>
       <c r="C201" s="4">
         <v>152</v>
       </c>
       <c r="D201" s="4">
-        <v>2925</v>
+        <v>2928</v>
       </c>
       <c r="E201" s="4">
-        <v>8722</v>
+        <v>8727</v>
       </c>
     </row>
     <row r="202" ht="14" customHeight="1">
@@ -4471,16 +4471,16 @@
         <v>205</v>
       </c>
       <c r="B202" s="4">
-        <v>17930</v>
+        <v>17970</v>
       </c>
       <c r="C202" s="4">
         <v>1997</v>
       </c>
       <c r="D202" s="4">
-        <v>2653</v>
+        <v>2660</v>
       </c>
       <c r="E202" s="4">
-        <v>22580</v>
+        <v>22627</v>
       </c>
     </row>
     <row r="203" ht="14" customHeight="1">
@@ -4488,16 +4488,16 @@
         <v>206</v>
       </c>
       <c r="B203" s="4">
-        <v>5931</v>
+        <v>5939</v>
       </c>
       <c r="C203" s="4">
         <v>386</v>
       </c>
       <c r="D203" s="4">
-        <v>2082</v>
+        <v>2087</v>
       </c>
       <c r="E203" s="4">
-        <v>8399</v>
+        <v>8412</v>
       </c>
     </row>
     <row r="204" ht="14" customHeight="1">
@@ -4505,16 +4505,16 @@
         <v>207</v>
       </c>
       <c r="B204" s="4">
-        <v>5523</v>
+        <v>5532</v>
       </c>
       <c r="C204" s="4">
         <v>75</v>
       </c>
       <c r="D204" s="4">
-        <v>2726</v>
+        <v>2744</v>
       </c>
       <c r="E204" s="4">
-        <v>8324</v>
+        <v>8351</v>
       </c>
     </row>
     <row r="205" ht="14" customHeight="1">
@@ -4522,16 +4522,16 @@
         <v>208</v>
       </c>
       <c r="B205" s="4">
-        <v>16500</v>
+        <v>16569</v>
       </c>
       <c r="C205" s="4">
-        <v>1455</v>
+        <v>1458</v>
       </c>
       <c r="D205" s="4">
-        <v>3476</v>
+        <v>3490</v>
       </c>
       <c r="E205" s="4">
-        <v>21431</v>
+        <v>21517</v>
       </c>
     </row>
     <row r="206" ht="14" customHeight="1">
@@ -4539,16 +4539,16 @@
         <v>209</v>
       </c>
       <c r="B206" s="4">
-        <v>28830</v>
+        <v>28892</v>
       </c>
       <c r="C206" s="4">
-        <v>7592</v>
+        <v>7593</v>
       </c>
       <c r="D206" s="4">
-        <v>17138</v>
+        <v>17197</v>
       </c>
       <c r="E206" s="4">
-        <v>53560</v>
+        <v>53682</v>
       </c>
     </row>
     <row r="207" ht="14" customHeight="1">
@@ -4556,7 +4556,7 @@
         <v>210</v>
       </c>
       <c r="B207" s="4">
-        <v>2772</v>
+        <v>2776</v>
       </c>
       <c r="C207" s="4">
         <v>81</v>
@@ -4565,7 +4565,7 @@
         <v>2066</v>
       </c>
       <c r="E207" s="4">
-        <v>4919</v>
+        <v>4923</v>
       </c>
     </row>
     <row r="208" ht="14" customHeight="1">
@@ -4573,7 +4573,7 @@
         <v>211</v>
       </c>
       <c r="B208" s="4">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="C208" s="4">
         <v>12</v>
@@ -4582,7 +4582,7 @@
         <v>429</v>
       </c>
       <c r="E208" s="4">
-        <v>1262</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="209" ht="14" customHeight="1">
@@ -4590,16 +4590,16 @@
         <v>212</v>
       </c>
       <c r="B209" s="4">
-        <v>16619</v>
+        <v>16622</v>
       </c>
       <c r="C209" s="4">
         <v>190</v>
       </c>
       <c r="D209" s="4">
-        <v>800</v>
+        <v>802</v>
       </c>
       <c r="E209" s="4">
-        <v>17609</v>
+        <v>17614</v>
       </c>
     </row>
     <row r="210" ht="14" customHeight="1">
@@ -4624,16 +4624,16 @@
         <v>214</v>
       </c>
       <c r="B211" s="4">
-        <v>11464</v>
+        <v>11486</v>
       </c>
       <c r="C211" s="4">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="D211" s="4">
-        <v>3302</v>
+        <v>3311</v>
       </c>
       <c r="E211" s="4">
-        <v>15238</v>
+        <v>15270</v>
       </c>
     </row>
     <row r="212" ht="14" customHeight="1">
@@ -4658,16 +4658,16 @@
         <v>216</v>
       </c>
       <c r="B213" s="4">
-        <v>169167</v>
+        <v>169338</v>
       </c>
       <c r="C213" s="4">
-        <v>9201</v>
+        <v>9209</v>
       </c>
       <c r="D213" s="4">
-        <v>24338</v>
+        <v>24521</v>
       </c>
       <c r="E213" s="4">
-        <v>202706</v>
+        <v>203068</v>
       </c>
     </row>
     <row r="214" ht="14" customHeight="1">
@@ -4675,16 +4675,16 @@
         <v>217</v>
       </c>
       <c r="B214" s="4">
-        <v>4013</v>
+        <v>4019</v>
       </c>
       <c r="C214" s="4">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="D214" s="4">
-        <v>4051</v>
+        <v>4052</v>
       </c>
       <c r="E214" s="4">
-        <v>8438</v>
+        <v>8446</v>
       </c>
     </row>
     <row r="215" ht="14" customHeight="1">
@@ -4692,16 +4692,16 @@
         <v>218</v>
       </c>
       <c r="B215" s="4">
-        <v>48688</v>
+        <v>48720</v>
       </c>
       <c r="C215" s="4">
         <v>589</v>
       </c>
       <c r="D215" s="4">
-        <v>12456</v>
+        <v>12496</v>
       </c>
       <c r="E215" s="4">
-        <v>61733</v>
+        <v>61805</v>
       </c>
     </row>
     <row r="216" ht="14" customHeight="1">
@@ -4709,16 +4709,16 @@
         <v>219</v>
       </c>
       <c r="B216" s="4">
-        <v>2876</v>
+        <v>2880</v>
       </c>
       <c r="C216" s="4">
         <v>130</v>
       </c>
       <c r="D216" s="4">
-        <v>2147</v>
+        <v>2178</v>
       </c>
       <c r="E216" s="4">
-        <v>5153</v>
+        <v>5188</v>
       </c>
     </row>
     <row r="217" ht="14" customHeight="1">
@@ -4766,10 +4766,10 @@
         <v>28</v>
       </c>
       <c r="D219" s="4">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="E219" s="4">
-        <v>1952</v>
+        <v>1953</v>
       </c>
     </row>
     <row r="220" ht="14" customHeight="1">
@@ -4777,16 +4777,16 @@
         <v>223</v>
       </c>
       <c r="B220" s="4">
-        <v>3862</v>
+        <v>3877</v>
       </c>
       <c r="C220" s="4">
         <v>323</v>
       </c>
       <c r="D220" s="4">
-        <v>845</v>
+        <v>847</v>
       </c>
       <c r="E220" s="4">
-        <v>5030</v>
+        <v>5047</v>
       </c>
     </row>
     <row r="221" ht="14" customHeight="1">
@@ -4794,16 +4794,16 @@
         <v>224</v>
       </c>
       <c r="B221" s="4">
-        <v>1560487</v>
+        <v>1563772</v>
       </c>
       <c r="C221" s="4">
-        <v>89092</v>
+        <v>89150</v>
       </c>
       <c r="D221" s="4">
-        <v>192865</v>
+        <v>193880</v>
       </c>
       <c r="E221" s="4">
-        <v>1842444</v>
+        <v>1846802</v>
       </c>
     </row>
     <row r="222" ht="14" customHeight="1">
@@ -4811,16 +4811,16 @@
         <v>225</v>
       </c>
       <c r="B222" s="4">
-        <v>81610</v>
+        <v>81669</v>
       </c>
       <c r="C222" s="4">
-        <v>3299</v>
+        <v>3304</v>
       </c>
       <c r="D222" s="4">
-        <v>48867</v>
+        <v>48888</v>
       </c>
       <c r="E222" s="4">
-        <v>133776</v>
+        <v>133861</v>
       </c>
     </row>
     <row r="223" ht="14" customHeight="1">
@@ -4845,16 +4845,16 @@
         <v>227</v>
       </c>
       <c r="B224" s="4">
-        <v>3376</v>
+        <v>3385</v>
       </c>
       <c r="C224" s="4">
         <v>108</v>
       </c>
       <c r="D224" s="4">
-        <v>1235</v>
+        <v>1239</v>
       </c>
       <c r="E224" s="4">
-        <v>4719</v>
+        <v>4732</v>
       </c>
     </row>
     <row r="225" ht="14" customHeight="1">
@@ -4879,16 +4879,16 @@
         <v>229</v>
       </c>
       <c r="B226" s="4">
-        <v>22194</v>
+        <v>22197</v>
       </c>
       <c r="C226" s="4">
         <v>1134</v>
       </c>
       <c r="D226" s="4">
-        <v>3730</v>
+        <v>3734</v>
       </c>
       <c r="E226" s="4">
-        <v>27058</v>
+        <v>27065</v>
       </c>
     </row>
     <row r="227" ht="14" customHeight="1">
@@ -4896,16 +4896,16 @@
         <v>230</v>
       </c>
       <c r="B227" s="4">
-        <v>71875</v>
+        <v>71924</v>
       </c>
       <c r="C227" s="4">
-        <v>1595</v>
+        <v>1596</v>
       </c>
       <c r="D227" s="4">
-        <v>41228</v>
+        <v>41380</v>
       </c>
       <c r="E227" s="4">
-        <v>114698</v>
+        <v>114900</v>
       </c>
     </row>
     <row r="228" ht="14" customHeight="1">
@@ -4913,16 +4913,16 @@
         <v>231</v>
       </c>
       <c r="B228" s="4">
-        <v>972695</v>
+        <v>975836</v>
       </c>
       <c r="C228" s="4">
-        <v>40799</v>
+        <v>40829</v>
       </c>
       <c r="D228" s="4">
-        <v>145103</v>
+        <v>145183</v>
       </c>
       <c r="E228" s="4">
-        <v>1158597</v>
+        <v>1161848</v>
       </c>
     </row>
     <row r="229" ht="14" customHeight="1">
@@ -4930,16 +4930,16 @@
         <v>232</v>
       </c>
       <c r="B229" s="4">
-        <v>10564</v>
+        <v>10620</v>
       </c>
       <c r="C229" s="4">
         <v>239</v>
       </c>
       <c r="D229" s="4">
-        <v>2812</v>
+        <v>2814</v>
       </c>
       <c r="E229" s="4">
-        <v>13615</v>
+        <v>13673</v>
       </c>
     </row>
     <row r="230" ht="14" customHeight="1">
@@ -4947,16 +4947,16 @@
         <v>233</v>
       </c>
       <c r="B230" s="4">
-        <v>8866</v>
+        <v>8899</v>
       </c>
       <c r="C230" s="4">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="D230" s="4">
-        <v>4551</v>
+        <v>4558</v>
       </c>
       <c r="E230" s="4">
-        <v>14287</v>
+        <v>14328</v>
       </c>
     </row>
     <row r="231" ht="14" customHeight="1">
@@ -4964,16 +4964,16 @@
         <v>234</v>
       </c>
       <c r="B231" s="4">
-        <v>10454</v>
+        <v>10467</v>
       </c>
       <c r="C231" s="4">
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="D231" s="4">
-        <v>3425</v>
+        <v>3436</v>
       </c>
       <c r="E231" s="4">
-        <v>15895</v>
+        <v>15923</v>
       </c>
     </row>
     <row r="232" ht="14" customHeight="1">
@@ -4987,10 +4987,10 @@
         <v>72</v>
       </c>
       <c r="D232" s="4">
-        <v>2171</v>
+        <v>2175</v>
       </c>
       <c r="E232" s="4">
-        <v>3070</v>
+        <v>3074</v>
       </c>
     </row>
     <row r="233" ht="14" customHeight="1">
@@ -4998,16 +4998,16 @@
         <v>236</v>
       </c>
       <c r="B233" s="4">
-        <v>23745</v>
+        <v>23790</v>
       </c>
       <c r="C233" s="4">
         <v>417</v>
       </c>
       <c r="D233" s="4">
-        <v>1658</v>
+        <v>1660</v>
       </c>
       <c r="E233" s="4">
-        <v>25820</v>
+        <v>25867</v>
       </c>
     </row>
     <row r="234" ht="14" customHeight="1">
@@ -5015,16 +5015,16 @@
         <v>237</v>
       </c>
       <c r="B234" s="4">
-        <v>41642</v>
+        <v>41726</v>
       </c>
       <c r="C234" s="4">
         <v>1212</v>
       </c>
       <c r="D234" s="4">
-        <v>11513</v>
+        <v>11535</v>
       </c>
       <c r="E234" s="4">
-        <v>54367</v>
+        <v>54473</v>
       </c>
     </row>
     <row r="235" ht="14" customHeight="1">
@@ -5032,16 +5032,16 @@
         <v>238</v>
       </c>
       <c r="B235" s="4">
-        <v>18146</v>
+        <v>18169</v>
       </c>
       <c r="C235" s="4">
-        <v>1800</v>
+        <v>1803</v>
       </c>
       <c r="D235" s="4">
-        <v>7124</v>
+        <v>7155</v>
       </c>
       <c r="E235" s="4">
-        <v>27070</v>
+        <v>27127</v>
       </c>
     </row>
     <row r="236" ht="14" customHeight="1">
@@ -5049,16 +5049,16 @@
         <v>239</v>
       </c>
       <c r="B236" s="4">
-        <v>38702</v>
+        <v>38819</v>
       </c>
       <c r="C236" s="4">
-        <v>1993</v>
+        <v>1999</v>
       </c>
       <c r="D236" s="4">
-        <v>14483</v>
+        <v>14510</v>
       </c>
       <c r="E236" s="4">
-        <v>55178</v>
+        <v>55328</v>
       </c>
     </row>
     <row r="237" ht="14" customHeight="1">
@@ -5066,16 +5066,16 @@
         <v>240</v>
       </c>
       <c r="B237" s="4">
-        <v>98754</v>
+        <v>99827</v>
       </c>
       <c r="C237" s="4">
-        <v>1230</v>
+        <v>1231</v>
       </c>
       <c r="D237" s="4">
-        <v>11586</v>
+        <v>11600</v>
       </c>
       <c r="E237" s="4">
-        <v>111570</v>
+        <v>112658</v>
       </c>
     </row>
     <row r="238" ht="14" customHeight="1">
@@ -5083,16 +5083,16 @@
         <v>241</v>
       </c>
       <c r="B238" s="4">
-        <v>32216</v>
+        <v>32368</v>
       </c>
       <c r="C238" s="4">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="D238" s="4">
-        <v>3500</v>
+        <v>3506</v>
       </c>
       <c r="E238" s="4">
-        <v>36539</v>
+        <v>36698</v>
       </c>
     </row>
     <row r="239" ht="14" customHeight="1">
@@ -5100,7 +5100,7 @@
         <v>242</v>
       </c>
       <c r="B239" s="4">
-        <v>4362</v>
+        <v>4364</v>
       </c>
       <c r="C239" s="4">
         <v>154</v>
@@ -5109,7 +5109,7 @@
         <v>445</v>
       </c>
       <c r="E239" s="4">
-        <v>4961</v>
+        <v>4963</v>
       </c>
     </row>
     <row r="240" ht="14" customHeight="1">
@@ -5117,16 +5117,16 @@
         <v>243</v>
       </c>
       <c r="B240" s="4">
-        <v>35783</v>
+        <v>35872</v>
       </c>
       <c r="C240" s="4">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="D240" s="4">
-        <v>7113</v>
+        <v>7114</v>
       </c>
       <c r="E240" s="4">
-        <v>43519</v>
+        <v>43611</v>
       </c>
     </row>
     <row r="241" ht="14" customHeight="1">
@@ -5134,16 +5134,16 @@
         <v>244</v>
       </c>
       <c r="B241" s="4">
-        <v>344938</v>
+        <v>345609</v>
       </c>
       <c r="C241" s="4">
-        <v>4455</v>
+        <v>4456</v>
       </c>
       <c r="D241" s="4">
-        <v>56661</v>
+        <v>56720</v>
       </c>
       <c r="E241" s="4">
-        <v>406054</v>
+        <v>406785</v>
       </c>
     </row>
     <row r="242" ht="14" customHeight="1">
@@ -5151,16 +5151,16 @@
         <v>245</v>
       </c>
       <c r="B242" s="4">
-        <v>30388</v>
+        <v>30457</v>
       </c>
       <c r="C242" s="4">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="D242" s="4">
-        <v>3376</v>
+        <v>3391</v>
       </c>
       <c r="E242" s="4">
-        <v>34601</v>
+        <v>34686</v>
       </c>
     </row>
     <row r="243" ht="14" customHeight="1">
@@ -5168,16 +5168,16 @@
         <v>246</v>
       </c>
       <c r="B243" s="4">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="C243" s="4">
         <v>375</v>
       </c>
       <c r="D243" s="4">
-        <v>2002</v>
+        <v>2042</v>
       </c>
       <c r="E243" s="4">
-        <v>3920</v>
+        <v>3961</v>
       </c>
     </row>
     <row r="244" ht="14" customHeight="1">
@@ -5185,16 +5185,16 @@
         <v>247</v>
       </c>
       <c r="B244" s="4">
-        <v>102475</v>
+        <v>102554</v>
       </c>
       <c r="C244" s="4">
         <v>6278</v>
       </c>
       <c r="D244" s="4">
-        <v>21394</v>
+        <v>21399</v>
       </c>
       <c r="E244" s="4">
-        <v>130147</v>
+        <v>130231</v>
       </c>
     </row>
     <row r="245" ht="14" customHeight="1">
@@ -5202,7 +5202,7 @@
         <v>248</v>
       </c>
       <c r="B245" s="4">
-        <v>11776</v>
+        <v>11785</v>
       </c>
       <c r="C245" s="4">
         <v>569</v>
@@ -5211,7 +5211,7 @@
         <v>4467</v>
       </c>
       <c r="E245" s="4">
-        <v>16812</v>
+        <v>16821</v>
       </c>
     </row>
     <row r="246" ht="14" customHeight="1">
@@ -5219,16 +5219,16 @@
         <v>249</v>
       </c>
       <c r="B246" s="4">
-        <v>23562</v>
+        <v>23689</v>
       </c>
       <c r="C246" s="4">
         <v>177</v>
       </c>
       <c r="D246" s="4">
-        <v>2116</v>
+        <v>2161</v>
       </c>
       <c r="E246" s="4">
-        <v>25855</v>
+        <v>26027</v>
       </c>
     </row>
     <row r="247" ht="14" customHeight="1">
@@ -5236,16 +5236,16 @@
         <v>250</v>
       </c>
       <c r="B247" s="4">
-        <v>411745</v>
+        <v>413142</v>
       </c>
       <c r="C247" s="4">
-        <v>14744</v>
+        <v>14763</v>
       </c>
       <c r="D247" s="4">
-        <v>65403</v>
+        <v>65634</v>
       </c>
       <c r="E247" s="4">
-        <v>491892</v>
+        <v>493539</v>
       </c>
     </row>
     <row r="248" ht="14" customHeight="1">
@@ -5253,16 +5253,16 @@
         <v>251</v>
       </c>
       <c r="B248" s="4">
-        <v>31928</v>
+        <v>32020</v>
       </c>
       <c r="C248" s="4">
         <v>1089</v>
       </c>
       <c r="D248" s="4">
-        <v>8045</v>
+        <v>8048</v>
       </c>
       <c r="E248" s="4">
-        <v>41062</v>
+        <v>41157</v>
       </c>
     </row>
     <row r="249" ht="14" customHeight="1">
@@ -5270,7 +5270,7 @@
         <v>252</v>
       </c>
       <c r="B249" s="4">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="C249" s="4">
         <v>45</v>
@@ -5279,7 +5279,7 @@
         <v>220</v>
       </c>
       <c r="E249" s="4">
-        <v>1269</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="250" ht="14" customHeight="1">
@@ -5287,16 +5287,16 @@
         <v>253</v>
       </c>
       <c r="B250" s="4">
-        <v>44819</v>
+        <v>44977</v>
       </c>
       <c r="C250" s="4">
-        <v>3136</v>
+        <v>3138</v>
       </c>
       <c r="D250" s="4">
-        <v>5889</v>
+        <v>5937</v>
       </c>
       <c r="E250" s="4">
-        <v>53844</v>
+        <v>54052</v>
       </c>
     </row>
     <row r="251" ht="14" customHeight="1">
@@ -5304,16 +5304,16 @@
         <v>254</v>
       </c>
       <c r="B251" s="4">
-        <v>16106</v>
+        <v>16143</v>
       </c>
       <c r="C251" s="4">
         <v>1805</v>
       </c>
       <c r="D251" s="4">
-        <v>3925</v>
+        <v>3950</v>
       </c>
       <c r="E251" s="4">
-        <v>21836</v>
+        <v>21898</v>
       </c>
     </row>
     <row r="252" ht="14" customHeight="1">
@@ -5324,13 +5324,13 @@
         <v>2214</v>
       </c>
       <c r="C252" s="4">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D252" s="4">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="E252" s="4">
-        <v>2827</v>
+        <v>2829</v>
       </c>
     </row>
     <row r="253" ht="14" customHeight="1">
@@ -5338,7 +5338,7 @@
         <v>256</v>
       </c>
       <c r="B253" s="4">
-        <v>6776</v>
+        <v>6783</v>
       </c>
       <c r="C253" s="4">
         <v>549</v>
@@ -5347,7 +5347,7 @@
         <v>1843</v>
       </c>
       <c r="E253" s="4">
-        <v>9168</v>
+        <v>9175</v>
       </c>
     </row>
     <row r="254" ht="14" customHeight="1">
@@ -5355,16 +5355,16 @@
         <v>257</v>
       </c>
       <c r="B254" s="4">
-        <v>15916</v>
+        <v>15932</v>
       </c>
       <c r="C254" s="4">
         <v>128</v>
       </c>
       <c r="D254" s="4">
-        <v>5005</v>
+        <v>5007</v>
       </c>
       <c r="E254" s="4">
-        <v>21049</v>
+        <v>21067</v>
       </c>
     </row>
     <row r="255" ht="14" customHeight="1">
@@ -5372,7 +5372,7 @@
         <v>258</v>
       </c>
       <c r="B255" s="4">
-        <v>9340</v>
+        <v>9355</v>
       </c>
       <c r="C255" s="4">
         <v>238</v>
@@ -5381,7 +5381,7 @@
         <v>808</v>
       </c>
       <c r="E255" s="4">
-        <v>10386</v>
+        <v>10401</v>
       </c>
     </row>
     <row r="256" ht="14" customHeight="1">
@@ -5389,16 +5389,16 @@
         <v>259</v>
       </c>
       <c r="B256" s="4">
-        <v>138059</v>
+        <v>138154</v>
       </c>
       <c r="C256" s="4">
-        <v>12898</v>
+        <v>12904</v>
       </c>
       <c r="D256" s="4">
-        <v>6074</v>
+        <v>6089</v>
       </c>
       <c r="E256" s="4">
-        <v>157031</v>
+        <v>157147</v>
       </c>
     </row>
     <row r="257" ht="14" customHeight="1">
@@ -5406,16 +5406,16 @@
         <v>260</v>
       </c>
       <c r="B257" s="4">
-        <v>21840056</v>
+        <v>21899149</v>
       </c>
       <c r="C257" s="4">
-        <v>1104460</v>
+        <v>1105622</v>
       </c>
       <c r="D257" s="4">
-        <v>3437682</v>
+        <v>3446641</v>
       </c>
       <c r="E257" s="4">
-        <v>26382198</v>
+        <v>26451412</v>
       </c>
     </row>
     <row r="258" ht="12" customHeight="1"/>
